--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9480" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Nr.</t>
   </si>
   <si>
     <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Plan (h)</t>
   </si>
   <si>
     <t>Ist (h)</t>
@@ -276,25 +279,16 @@
     <t xml:space="preserve">Dokumentation </t>
   </si>
   <si>
-    <t>Ferien</t>
+    <t>SmartPlant</t>
   </si>
   <si>
-    <t>x</t>
+    <t>$</t>
   </si>
   <si>
-    <t>Geplant</t>
+    <t>Fynn Bucher</t>
   </si>
   <si>
-    <t>KW 7</t>
-  </si>
-  <si>
-    <t>Plan(h)</t>
-  </si>
-  <si>
-    <t>&lt;Björn Burkard&gt;</t>
-  </si>
-  <si>
-    <t>SmartPlant</t>
+    <t>Ferien</t>
   </si>
   <si>
     <t>Anforderung #01 (Pflanzen-Daten per Twitter)</t>
@@ -330,10 +324,7 @@
     <t>Anforderung #11 (Admin: Twitter-Account)</t>
   </si>
   <si>
-    <t>Anforderung #12 (Admin: Tweets löschen)</t>
-  </si>
-  <si>
-    <t>i.A</t>
+    <t>Anforderung #12 (Admin: Twitter-Account)</t>
   </si>
   <si>
     <t>Projektende</t>
@@ -346,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -477,32 +468,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,29 +512,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFCCC0DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -739,6 +701,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -764,8 +737,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1104,6 +1103,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1193,6 +1203,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1506,94 +1529,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
@@ -1603,15 +1540,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1642,58 +1578,55 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,148 +1650,145 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1870,184 +1800,256 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="42" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="51" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="80" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="81" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2059,120 +2061,37 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="2" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="80" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="81" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
     <cellStyle name="Gelb-Feld" xfId="2"/>
     <cellStyle name="schatten_blau" xfId="3"/>
-    <cellStyle name="Schlecht" xfId="5" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Titel" xfId="4"/>
   </cellStyles>
@@ -2180,7 +2099,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFCCC0DA"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
@@ -2371,7 +2291,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2386,13 +2306,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2401,13 +2321,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2446,13 +2366,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,11 +2392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="365961416"/>
-        <c:axId val="365952008"/>
+        <c:axId val="308720128"/>
+        <c:axId val="308725616"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="365961416"/>
+        <c:axId val="308720128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,14 +2406,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365952008"/>
+        <c:crossAx val="308725616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="365952008"/>
+        <c:axId val="308725616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365961416"/>
+        <c:crossAx val="308720128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,19 +2514,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>63.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2668,19 +2588,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.2</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2703,11 +2623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="365960632"/>
-        <c:axId val="365953184"/>
+        <c:axId val="308725224"/>
+        <c:axId val="308722088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365960632"/>
+        <c:axId val="308725224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365953184"/>
+        <c:crossAx val="308722088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,7 +2645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365953184"/>
+        <c:axId val="308722088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365960632"/>
+        <c:crossAx val="308725224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2774,13 +2694,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2194" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000092080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2194" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2812,13 +2726,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3187,10 +3095,10 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AW59"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3198,53 +3106,58 @@
     <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="14" customWidth="1"/>
     <col min="5" max="8" width="3.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="15" customWidth="1"/>
     <col min="11" max="30" width="3.25" style="5" customWidth="1"/>
     <col min="31" max="35" width="3.25" style="4" customWidth="1"/>
     <col min="36" max="40" width="3.08203125" style="4" customWidth="1"/>
-    <col min="41" max="45" width="2.75" style="5" customWidth="1"/>
+    <col min="41" max="42" width="2.9140625" style="5" customWidth="1"/>
+    <col min="43" max="43" width="2.6640625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="4" style="5" customWidth="1"/>
+    <col min="45" max="45" width="3.25" style="5" customWidth="1"/>
     <col min="46" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-    </row>
-    <row r="2" spans="1:49" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
+    <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+    </row>
+    <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
@@ -3255,2385 +3168,2378 @@
       <c r="I2" s="4"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="150" t="s">
+    <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="152" t="s">
+      <c r="D3" s="170"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="152" t="s">
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="152" t="s">
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="152" t="s">
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="153"/>
-      <c r="AO3" s="150" t="s">
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="169" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="171"/>
+      <c r="AO3" s="169" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="171"/>
+    </row>
+    <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="151"/>
-    </row>
-    <row r="4" spans="1:49" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="109">
+      <c r="G4" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="107">
         <v>43073</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>43074</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f>L4+1</f>
         <v>43075</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="26">
         <f>M4+1</f>
         <v>43076</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="27">
         <f>N4+1</f>
         <v>43077</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <f>O4+3</f>
         <v>43080</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f>P4+1</f>
         <v>43081</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f>Q4+1</f>
         <v>43082</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <f>R4+1</f>
         <v>43083</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="29">
         <f>S4+1</f>
         <v>43084</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="28">
         <f>T4+3</f>
         <v>43087</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <f>U4+1</f>
         <v>43088</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <f>V4+1</f>
         <v>43089</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="25">
         <f>W4+1</f>
         <v>43090</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <f>X4+1</f>
         <v>43091</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="28">
         <f>Y4+3</f>
         <v>43094</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="25">
         <f>Z4+1</f>
         <v>43095</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="25">
         <f>AA4+1</f>
         <v>43096</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="25">
         <f>AB4+1</f>
         <v>43097</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="29">
         <f>AC4+1</f>
         <v>43098</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="28">
         <f>AD4+3</f>
         <v>43101</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AF4" s="25">
         <f>AE4+1</f>
         <v>43102</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AG4" s="25">
         <f>AF4+1</f>
         <v>43103</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="25">
         <f>AG4+1</f>
         <v>43104</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AI4" s="29">
         <f>AH4+1</f>
         <v>43105</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="28">
         <f>AI4+3</f>
         <v>43108</v>
       </c>
-      <c r="AK4" s="31">
+      <c r="AK4" s="30">
         <f>AJ4+1</f>
         <v>43109</v>
       </c>
-      <c r="AL4" s="31">
+      <c r="AL4" s="30">
         <f>AK4+1</f>
         <v>43110</v>
       </c>
-      <c r="AM4" s="31">
+      <c r="AM4" s="30">
         <f>AL4+1</f>
         <v>43111</v>
       </c>
-      <c r="AN4" s="28">
+      <c r="AN4" s="71">
         <f>AM4+1</f>
         <v>43112</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="AO4" s="28">
         <f>AN4+3</f>
         <v>43115</v>
       </c>
-      <c r="AP4" s="31">
+      <c r="AP4" s="30">
         <f>AO4+1</f>
         <v>43116</v>
       </c>
-      <c r="AQ4" s="31">
+      <c r="AQ4" s="30">
         <f>AP4+1</f>
         <v>43117</v>
       </c>
-      <c r="AR4" s="31">
+      <c r="AR4" s="30">
         <f>AQ4+1</f>
         <v>43118</v>
       </c>
-      <c r="AS4" s="73">
+      <c r="AS4" s="71">
         <f>AR4+1</f>
         <v>43119</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="93">
+    <row r="5" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="91">
         <v>10</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="96">
+      <c r="B5" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="94">
         <f>SUM(C6:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="97">
+        <v>16</v>
+      </c>
+      <c r="D5" s="95">
         <f>SUM(D6:D10)</f>
-        <v>16.2</v>
-      </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="106"/>
-    </row>
-    <row r="6" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68">
+        <v>8.5</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="104"/>
+    </row>
+    <row r="6" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="66">
         <v>11</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33">
+        <f>IF(SUM(K6:AS6)=0," ",SUM(K6:AS6))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="36">
+        <v>2</v>
+      </c>
+      <c r="N6" s="149"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="137"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="73"/>
+    </row>
+    <row r="7" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="66">
+        <v>12</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="D7" s="33">
+        <f>IF(SUM(K7:AS7)=0," ",SUM(K7:AS7))</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="36">
+        <v>6</v>
+      </c>
+      <c r="S7" s="43"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="159"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="160"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="146"/>
+      <c r="AP7" s="139"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="75"/>
+    </row>
+    <row r="8" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66">
+        <v>13</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f>IF(SUM(K8:AS8)=0," ",SUM(K8:AS8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="39">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="160"/>
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="139"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="146"/>
+      <c r="AP8" s="139"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="76"/>
+    </row>
+    <row r="9" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="66">
         <v>14</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
-        <f>IF(SUM(K6:AS6)=0," ",SUM(K6:AS6))</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="B9" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="33">
+        <f>IF(SUM(K9:AS9)=0," ",SUM(K9:AS9))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="39">
         <v>1</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="170">
-        <v>3</v>
-      </c>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="143"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="143"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="139"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="140"/>
-      <c r="AO6" s="138"/>
-      <c r="AP6" s="128"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="75"/>
-    </row>
-    <row r="7" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68">
-        <v>12</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="34">
-        <f>IF(SUM(K7:AS7)=0," ",SUM(K7:AS7))</f>
-        <v>6.5</v>
-      </c>
-      <c r="E7" s="40">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="170">
-        <v>6.5</v>
-      </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="77"/>
-    </row>
-    <row r="8" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68">
-        <v>13</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="34">
-        <f>IF(SUM(K8:AS8)=0," ",SUM(K8:AS8))</f>
-        <v>6</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="170">
-        <v>1.5</v>
-      </c>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="170">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="130"/>
-      <c r="AG8" s="130"/>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="139"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="171">
-        <v>1.5</v>
-      </c>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="128"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="170">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="34">
-        <f>IF(SUM(K9:AS9)=0," ",SUM(K9:AS9))</f>
-        <v>0.7</v>
-      </c>
-      <c r="E9" s="40">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="88"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="86"/>
       <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="170">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="168">
-        <v>0.3</v>
-      </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="145"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="159"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="160"/>
+      <c r="AJ9" s="138"/>
       <c r="AK9" s="139"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="141"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="76"/>
       <c r="AO9" s="138"/>
-      <c r="AP9" s="128"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="78"/>
-    </row>
-    <row r="10" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="68">
+      <c r="AP9" s="139"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="76"/>
+    </row>
+    <row r="10" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66">
         <v>15</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="34" t="str">
+      <c r="B10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="49">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33" t="str">
         <f>IF(SUM(K10:AS10)=0," ",SUM(K10:AS10))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="88"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="141"/>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="78"/>
-    </row>
-    <row r="11" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="93">
+      <c r="L10" s="129"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="147"/>
+      <c r="AK10" s="141"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="141"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="76"/>
+    </row>
+    <row r="11" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="91">
         <v>20</v>
       </c>
-      <c r="B11" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="107">
+      <c r="B11" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="105">
         <f>SUM(C12:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="96">
+        <v>6</v>
+      </c>
+      <c r="D11" s="94">
         <f>SUM(D12:D15)</f>
         <v>5.5</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="106"/>
-    </row>
-    <row r="12" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="69">
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="104"/>
+    </row>
+    <row r="12" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="67">
         <v>21</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="58">
-        <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
+      <c r="B12" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="32">
+        <v>6</v>
+      </c>
+      <c r="D12" s="57">
+        <f>IF(SUM(K12:AS12)=0," ",SUM(K12:AS12))</f>
         <v>5.5</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>1</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="170">
+      <c r="F12" s="32"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="42">
         <v>5</v>
       </c>
-      <c r="N12" s="131"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="170">
+      <c r="N12" s="149"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="36">
         <v>0.5</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="143"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="138"/>
-      <c r="AP12" s="128"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="80"/>
-      <c r="AW12"/>
-    </row>
-    <row r="13" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="69">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="137"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="78"/>
+    </row>
+    <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="143"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="130"/>
-      <c r="AH13" s="130"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="128"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="80"/>
-    </row>
-    <row r="14" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="69">
+      <c r="B13" s="72"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="137"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="78"/>
+    </row>
+    <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67">
         <v>23</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="147"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="143"/>
-      <c r="AJ14" s="145"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="138"/>
-      <c r="AP14" s="128"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="80"/>
-    </row>
-    <row r="15" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="69">
+      <c r="B14" s="72"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="155"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="142"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="142"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="78"/>
+    </row>
+    <row r="15" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="67">
         <v>24</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="58" t="str">
+      <c r="B15" s="72"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="57" t="str">
         <f t="shared" ref="D15" si="0">IF(SUM(K15:AD15)=0," ",SUM(K15:AD15))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="147"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="130"/>
-      <c r="AH15" s="130"/>
-      <c r="AI15" s="143"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="128"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="80"/>
-    </row>
-    <row r="16" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="93">
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="142"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="142"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="78"/>
+    </row>
+    <row r="16" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="91">
         <v>30</v>
       </c>
-      <c r="B16" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="96">
-        <f>SUM(C17:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="97">
-        <f>SUM(D17:D28)</f>
-        <v>67</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="105"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="106"/>
+      <c r="B16" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="94">
+        <f>SUM(C17:C28)</f>
+        <v>63.400000000000006</v>
+      </c>
+      <c r="D16" s="95">
+        <f>SUM(D17:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="102"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="104"/>
     </row>
     <row r="17" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="69">
+      <c r="A17" s="67">
         <v>31</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="32">
+        <v>22</v>
+      </c>
+      <c r="D17" s="57" t="str">
+        <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35">
+        <v>43089</v>
+      </c>
+      <c r="J17" s="86"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="156"/>
+      <c r="AI17" s="157"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="142"/>
+      <c r="AP17" s="137"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="78"/>
+    </row>
+    <row r="18" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="67">
+        <v>32</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35">
+        <v>43090</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="137"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="78"/>
+    </row>
+    <row r="19" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="67">
+        <v>33</v>
+      </c>
+      <c r="B19" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="58">
-        <f>IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v>21.5</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="C19" s="32">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D19" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" s="31">
         <v>1</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36">
-        <v>43089</v>
-      </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="189">
-        <v>7</v>
-      </c>
-      <c r="T17" s="190">
+      <c r="F19" s="32"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35">
+        <v>43091</v>
+      </c>
+      <c r="J19" s="86"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="142"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="137"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="78"/>
+    </row>
+    <row r="20" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="67">
+        <v>34</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35">
+        <v>42745</v>
+      </c>
+      <c r="J20" s="86"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="156"/>
+      <c r="AI20" s="157"/>
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="137"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="78"/>
+    </row>
+    <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="67">
+        <v>35</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="32">
         <v>6.5</v>
       </c>
-      <c r="U17" s="175"/>
-      <c r="V17" s="175"/>
-      <c r="W17" s="191">
+      <c r="D21" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E21" s="31">
+        <v>2</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35">
+        <v>42745</v>
+      </c>
+      <c r="J21" s="86"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="156"/>
+      <c r="AI21" s="157"/>
+      <c r="AJ21" s="142"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="142"/>
+      <c r="AP21" s="137"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="78"/>
+    </row>
+    <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="67">
+        <v>36</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="31">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35">
+        <v>42746</v>
+      </c>
+      <c r="J22" s="86"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="157"/>
+      <c r="AJ22" s="142"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="142"/>
+      <c r="AP22" s="137"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="78"/>
+    </row>
+    <row r="23" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="67">
+        <v>37</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="40">
+        <v>5</v>
+      </c>
+      <c r="D23" s="33" t="str">
+        <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E23" s="39">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35">
+        <v>42746</v>
+      </c>
+      <c r="J23" s="86"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="159"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="159"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="159"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="145"/>
+      <c r="AP23" s="139"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="76"/>
+    </row>
+    <row r="24" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="67">
+        <v>38</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="D24" s="57" t="str">
+        <f>IF(SUM(K24:AS24)=0," ",SUM(K24:AS24))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E24" s="31">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35">
+        <v>42747</v>
+      </c>
+      <c r="J24" s="86"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="156"/>
+      <c r="AI24" s="157"/>
+      <c r="AJ24" s="142"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="142"/>
+      <c r="AP24" s="137"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="78"/>
+    </row>
+    <row r="25" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="67">
+        <v>39</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="D25" s="57" t="str">
+        <f>IF(SUM(K25:AS25)=0," ",SUM(K25:AS25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E25" s="31">
+        <v>3</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35">
+        <v>42752</v>
+      </c>
+      <c r="J25" s="86"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="142"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="142"/>
+      <c r="AP25" s="137"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="78"/>
+    </row>
+    <row r="26" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="67">
+        <v>40</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="32">
+        <v>2</v>
+      </c>
+      <c r="D26" s="57" t="str">
+        <f>IF(SUM(K26:AS26)=0," ",SUM(K26:AS26))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" s="31">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35">
+        <v>42752</v>
+      </c>
+      <c r="J26" s="86"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="156"/>
+      <c r="AI26" s="157"/>
+      <c r="AJ26" s="142"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="142"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="78"/>
+    </row>
+    <row r="27" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="67">
+        <v>41</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="33" t="str">
+        <f>IF(SUM(K27:AD27)=0," ",SUM(K27:AD27))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27" s="39">
+        <v>3</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35">
+        <v>42752</v>
+      </c>
+      <c r="J27" s="86"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="159"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="159"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="159"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="139"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="139"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="76"/>
+    </row>
+    <row r="28" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="67">
+        <v>42</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="33" t="str">
+        <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E28" s="39">
+        <v>3</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35">
+        <v>42752</v>
+      </c>
+      <c r="J28" s="86"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="76"/>
+    </row>
+    <row r="29" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="91">
+        <v>50</v>
+      </c>
+      <c r="B29" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="177"/>
-      <c r="AE17" s="178"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="177"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="180"/>
-      <c r="AL17" s="172"/>
-      <c r="AM17" s="181"/>
-      <c r="AN17" s="182"/>
-      <c r="AO17" s="183"/>
-      <c r="AP17" s="175"/>
-      <c r="AQ17" s="172"/>
-      <c r="AR17" s="181"/>
-      <c r="AS17" s="80"/>
-    </row>
-    <row r="18" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69">
-        <v>32</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="58">
-        <f>IF(SUM(K18:AS18)=0," ",SUM(K18:AS18))</f>
-        <v>4.5</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="C29" s="94">
+        <f>SUM(C30:C32)</f>
+        <v>6</v>
+      </c>
+      <c r="D29" s="95">
+        <f>SUM(D30:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="93"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="104"/>
+    </row>
+    <row r="30" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="67">
+        <v>50</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="32">
         <v>1</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36">
-        <v>43090</v>
-      </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="175"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="189">
-        <v>4.5</v>
-      </c>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="177"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="177"/>
-      <c r="AJ18" s="179"/>
-      <c r="AK18" s="180"/>
-      <c r="AL18" s="172"/>
-      <c r="AM18" s="181"/>
-      <c r="AN18" s="182"/>
-      <c r="AO18" s="183"/>
-      <c r="AP18" s="175"/>
-      <c r="AQ18" s="172"/>
-      <c r="AR18" s="181"/>
-      <c r="AS18" s="80"/>
-    </row>
-    <row r="19" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69">
-        <v>33</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="58">
-        <f>IF(SUM(K19:AS19)=0," ",SUM(K19:AS19))</f>
-        <v>10</v>
-      </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36">
-        <v>43091</v>
-      </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="175"/>
-      <c r="V19" s="175"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="189">
-        <v>3.5</v>
-      </c>
-      <c r="Y19" s="190">
-        <v>6.5</v>
-      </c>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="177"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="177"/>
-      <c r="AJ19" s="179"/>
-      <c r="AK19" s="180"/>
-      <c r="AL19" s="172"/>
-      <c r="AM19" s="181"/>
-      <c r="AN19" s="182"/>
-      <c r="AO19" s="183"/>
-      <c r="AP19" s="175"/>
-      <c r="AQ19" s="172"/>
-      <c r="AR19" s="181"/>
-      <c r="AS19" s="80"/>
-    </row>
-    <row r="20" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69">
-        <v>34</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="58">
-        <f>IF(SUM(K20:AS20)=0," ",SUM(K20:AS20))</f>
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36">
-        <v>42745</v>
-      </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="173"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="176"/>
-      <c r="AA20" s="176"/>
-      <c r="AB20" s="176"/>
-      <c r="AC20" s="176"/>
-      <c r="AD20" s="177"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="176"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="176"/>
-      <c r="AI20" s="177"/>
-      <c r="AJ20" s="179"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="189">
-        <v>1.5</v>
-      </c>
-      <c r="AM20" s="181"/>
-      <c r="AN20" s="182"/>
-      <c r="AO20" s="183"/>
-      <c r="AP20" s="175"/>
-      <c r="AQ20" s="172"/>
-      <c r="AR20" s="181"/>
-      <c r="AS20" s="80"/>
-    </row>
-    <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69">
-        <v>35</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="58">
-        <f>IF(SUM(K21:AS21)=0," ",SUM(K21:AS21))</f>
-        <v>6.5</v>
-      </c>
-      <c r="E21" s="32">
-        <v>2</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36">
-        <v>42745</v>
-      </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="176"/>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="176"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="176"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="176"/>
-      <c r="AI21" s="177"/>
-      <c r="AJ21" s="179"/>
-      <c r="AK21" s="180"/>
-      <c r="AL21" s="189">
-        <v>6.5</v>
-      </c>
-      <c r="AM21" s="181"/>
-      <c r="AN21" s="182"/>
-      <c r="AO21" s="183"/>
-      <c r="AP21" s="175"/>
-      <c r="AQ21" s="172"/>
-      <c r="AR21" s="181"/>
-      <c r="AS21" s="80"/>
-    </row>
-    <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69">
-        <v>36</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="58">
-        <f>IF(SUM(K22:AS22)=0," ",SUM(K22:AS22))</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="32">
-        <v>2</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36">
-        <v>42746</v>
-      </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="175"/>
-      <c r="V22" s="175"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="176"/>
-      <c r="AA22" s="176"/>
-      <c r="AB22" s="176"/>
-      <c r="AC22" s="176"/>
-      <c r="AD22" s="177"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="176"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="176"/>
-      <c r="AI22" s="177"/>
-      <c r="AJ22" s="179"/>
-      <c r="AK22" s="180"/>
-      <c r="AL22" s="172"/>
-      <c r="AM22" s="192">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="182"/>
-      <c r="AO22" s="183"/>
-      <c r="AP22" s="175"/>
-      <c r="AQ22" s="172"/>
-      <c r="AR22" s="181"/>
-      <c r="AS22" s="80"/>
-    </row>
-    <row r="23" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69">
-        <v>37</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="34">
-        <f>IF(SUM(K23:AS23)=0," ",SUM(K23:AS23))</f>
-        <v>5</v>
-      </c>
-      <c r="E23" s="40">
-        <v>2</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36">
-        <v>42746</v>
-      </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="176"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="176"/>
-      <c r="AC23" s="176"/>
-      <c r="AD23" s="177"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="176"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
-      <c r="AI23" s="177"/>
-      <c r="AJ23" s="179"/>
-      <c r="AK23" s="180"/>
-      <c r="AL23" s="169"/>
-      <c r="AM23" s="193">
-        <v>5</v>
-      </c>
-      <c r="AN23" s="188"/>
-      <c r="AO23" s="183"/>
-      <c r="AP23" s="175"/>
-      <c r="AQ23" s="169"/>
-      <c r="AR23" s="187"/>
-      <c r="AS23" s="78"/>
-    </row>
-    <row r="24" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="167">
-        <v>38</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="58">
-        <f>IF(SUM(K24:AS24)=0," ",SUM(K24:AS24))</f>
-        <v>7</v>
-      </c>
-      <c r="E24" s="32">
-        <v>2</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36">
-        <v>42747</v>
-      </c>
-      <c r="J24" s="88"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="175"/>
-      <c r="V24" s="175"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="176"/>
-      <c r="AB24" s="176"/>
-      <c r="AC24" s="176"/>
-      <c r="AD24" s="177"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="176"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
-      <c r="AI24" s="177"/>
-      <c r="AJ24" s="179"/>
-      <c r="AK24" s="180"/>
-      <c r="AL24" s="172"/>
-      <c r="AM24" s="192">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="194">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="183"/>
-      <c r="AP24" s="175"/>
-      <c r="AQ24" s="172"/>
-      <c r="AR24" s="181"/>
-      <c r="AS24" s="80"/>
-    </row>
-    <row r="25" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="167">
-        <v>39</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="58">
-        <f>IF(SUM(K24:AS24)=0," ",SUM(K24:AS24))</f>
-        <v>7</v>
-      </c>
-      <c r="E25" s="32">
-        <v>3</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36">
-        <v>42752</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="176"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="176"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="177"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="176"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="176"/>
-      <c r="AI25" s="177"/>
-      <c r="AJ25" s="179"/>
-      <c r="AK25" s="180"/>
-      <c r="AL25" s="172"/>
-      <c r="AM25" s="181"/>
-      <c r="AN25" s="194">
-        <v>1.5</v>
-      </c>
-      <c r="AO25" s="183"/>
-      <c r="AP25" s="175"/>
-      <c r="AQ25" s="189">
-        <v>2</v>
-      </c>
-      <c r="AR25" s="181"/>
-      <c r="AS25" s="80"/>
-    </row>
-    <row r="26" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="167">
-        <v>40</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="58">
-        <f>IF(SUM(K26:AS26)=0," ",SUM(K26:AS26))</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="32">
-        <v>3</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36">
-        <v>42752</v>
-      </c>
-      <c r="J26" s="88"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="176"/>
-      <c r="AA26" s="176"/>
-      <c r="AB26" s="176"/>
-      <c r="AC26" s="176"/>
-      <c r="AD26" s="177"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="176"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="176"/>
-      <c r="AI26" s="177"/>
-      <c r="AJ26" s="179"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="172"/>
-      <c r="AM26" s="181"/>
-      <c r="AN26" s="182"/>
-      <c r="AO26" s="183"/>
-      <c r="AP26" s="175"/>
-      <c r="AQ26" s="189">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="181"/>
-      <c r="AS26" s="80"/>
-    </row>
-    <row r="27" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="167">
-        <v>41</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="34">
-        <f>IF(SUM(K27:AS27)=0," ",SUM(K27:AS27))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="40">
-        <v>3</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36">
-        <v>42752</v>
-      </c>
-      <c r="J27" s="88"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="169"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="176"/>
-      <c r="AA27" s="176"/>
-      <c r="AB27" s="176"/>
-      <c r="AC27" s="176"/>
-      <c r="AD27" s="177"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="176"/>
-      <c r="AG27" s="176"/>
-      <c r="AH27" s="176"/>
-      <c r="AI27" s="177"/>
-      <c r="AJ27" s="179"/>
-      <c r="AK27" s="180"/>
-      <c r="AL27" s="169"/>
-      <c r="AM27" s="187"/>
-      <c r="AN27" s="188"/>
-      <c r="AO27" s="183"/>
-      <c r="AP27" s="175"/>
-      <c r="AQ27" s="168">
-        <v>0.5</v>
-      </c>
-      <c r="AR27" s="187"/>
-      <c r="AS27" s="78"/>
-    </row>
-    <row r="28" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="167">
-        <v>42</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="34">
-        <f>IF(SUM(K28:AS28)=0," ",SUM(K28:AS28))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="40">
-        <v>3</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36">
-        <v>42752</v>
-      </c>
-      <c r="J28" s="88"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="169"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="177"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="176"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="177"/>
-      <c r="AJ28" s="179"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="169"/>
-      <c r="AM28" s="187"/>
-      <c r="AN28" s="188"/>
-      <c r="AO28" s="183"/>
-      <c r="AP28" s="175"/>
-      <c r="AQ28" s="168">
-        <v>0.5</v>
-      </c>
-      <c r="AR28" s="187"/>
-      <c r="AS28" s="78"/>
-    </row>
-    <row r="29" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93">
-        <v>50</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="96">
-        <f>SUM(C30:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="97">
-        <f>SUM(D30:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="104"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="104"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="105"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="104"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="106"/>
-    </row>
-    <row r="30" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="69">
-        <v>50</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="58" t="str">
+      <c r="D30" s="57" t="str">
         <f>IF(SUM(K30:AS30)=0," ",SUM(K30:AS30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>1</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="146"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="143"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="139"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="142"/>
-      <c r="AO30" s="138"/>
-      <c r="AP30" s="128"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="83"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="156"/>
+      <c r="AI30" s="157"/>
+      <c r="AJ30" s="142"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="142"/>
+      <c r="AP30" s="137"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="81"/>
     </row>
     <row r="31" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="69">
+      <c r="A31" s="67">
         <v>51</v>
       </c>
-      <c r="B31" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="58" t="str">
+      <c r="B31" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2</v>
+      </c>
+      <c r="D31" s="57" t="str">
         <f>IF(SUM(K31:AS31)=0," ",SUM(K31:AS31))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>1</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="143"/>
-      <c r="AE31" s="147"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="143"/>
-      <c r="AJ31" s="145"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="164"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="156"/>
+      <c r="AI31" s="157"/>
+      <c r="AJ31" s="142"/>
       <c r="AK31" s="139"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="138"/>
-      <c r="AP31" s="128"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="84"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="142"/>
+      <c r="AP31" s="139"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="82"/>
     </row>
     <row r="32" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="69">
+      <c r="A32" s="67">
         <v>52</v>
       </c>
-      <c r="B32" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="58" t="str">
+      <c r="B32" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="55">
+        <v>3</v>
+      </c>
+      <c r="D32" s="57" t="str">
         <f>IF(SUM(K32:AS32)=0," ",SUM(K32:AS32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="59">
         <v>1</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="143"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="138"/>
-      <c r="AP32" s="128"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="77"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="165"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="166"/>
+      <c r="AD32" s="167"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="166"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="166"/>
+      <c r="AI32" s="167"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="143"/>
+      <c r="AP32" s="137"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="75"/>
     </row>
     <row r="33" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="93">
+      <c r="A33" s="91">
         <v>60</v>
       </c>
-      <c r="B33" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="96">
+      <c r="B33" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="94">
         <f>SUM(C34:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="97">
+        <v>5</v>
+      </c>
+      <c r="D33" s="95">
         <f>SUM(D34:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="102"/>
+      <c r="AG33" s="103"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="102"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="103"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="93"/>
+      <c r="AP33" s="102"/>
+      <c r="AQ33" s="102"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="104"/>
+    </row>
+    <row r="34" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="68">
+        <v>61</v>
+      </c>
+      <c r="B34" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="105"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="104"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="104"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="98"/>
-      <c r="AO33" s="103"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="106"/>
-    </row>
-    <row r="34" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="70">
-        <v>61</v>
-      </c>
-      <c r="B34" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="58">
-        <f>IF(SUM(K34:AS34)=0," ",SUM(K34:AS34))</f>
+      <c r="C34" s="32">
         <v>5</v>
       </c>
-      <c r="E34" s="32">
+      <c r="D34" s="57"/>
+      <c r="E34" s="31">
         <v>3</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="195">
-        <v>1</v>
-      </c>
-      <c r="S34" s="196">
-        <v>1</v>
-      </c>
-      <c r="T34" s="39"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="146"/>
-      <c r="AF34" s="130"/>
-      <c r="AG34" s="130"/>
-      <c r="AH34" s="130"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="139"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="142"/>
-      <c r="AO34" s="138"/>
-      <c r="AP34" s="128"/>
-      <c r="AQ34" s="196">
-        <v>3</v>
-      </c>
-      <c r="AR34" s="166"/>
-      <c r="AS34" s="83"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="156"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="156"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="164"/>
+      <c r="AF34" s="156"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="156"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="142"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="142"/>
+      <c r="AP34" s="137"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="81"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="70">
+      <c r="A35" s="68">
         <v>62</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="130"/>
-      <c r="AC35" s="130"/>
-      <c r="AD35" s="143"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="130"/>
-      <c r="AG35" s="130"/>
-      <c r="AH35" s="130"/>
-      <c r="AI35" s="143"/>
-      <c r="AJ35" s="145"/>
-      <c r="AK35" s="139"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="138"/>
-      <c r="AP35" s="128"/>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="77"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="61" t="str">
+        <f>IF(SUM(K35:AD35)=0," ",SUM(K35:AD35))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="144"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="165"/>
+      <c r="AA35" s="166"/>
+      <c r="AB35" s="154"/>
+      <c r="AC35" s="166"/>
+      <c r="AD35" s="167"/>
+      <c r="AE35" s="165"/>
+      <c r="AF35" s="166"/>
+      <c r="AG35" s="154"/>
+      <c r="AH35" s="166"/>
+      <c r="AI35" s="167"/>
+      <c r="AJ35" s="148"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="148"/>
+      <c r="AP35" s="144"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="75"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="93">
+      <c r="A36" s="91">
         <v>70</v>
       </c>
-      <c r="B36" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="96">
+      <c r="B36" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="94">
         <f>SUM(C37:C38)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="95">
         <f>SUM(D37:D38)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="104"/>
-      <c r="W36" s="105"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="105"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="104"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="104"/>
-      <c r="AL36" s="104"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="98"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="104"/>
-      <c r="AQ36" s="104"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="106"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="102"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="101"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="102"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="103"/>
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="102"/>
+      <c r="AQ36" s="102"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="104"/>
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="69">
+      <c r="A37" s="67">
         <v>71</v>
       </c>
-      <c r="B37" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="58" t="str">
+      <c r="B37" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="57" t="str">
         <f>IF(SUM(K37:AS37)=0," ",SUM(K37:AS37))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>2</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="130"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="143"/>
-      <c r="AE37" s="146"/>
-      <c r="AF37" s="130"/>
-      <c r="AG37" s="130"/>
-      <c r="AH37" s="130"/>
-      <c r="AI37" s="143"/>
-      <c r="AJ37" s="145"/>
-      <c r="AK37" s="139"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="138"/>
-      <c r="AP37" s="128"/>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="38"/>
-      <c r="AS37" s="84"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="142"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="164"/>
+      <c r="AA37" s="156"/>
+      <c r="AB37" s="149"/>
+      <c r="AC37" s="156"/>
+      <c r="AD37" s="157"/>
+      <c r="AE37" s="164"/>
+      <c r="AF37" s="156"/>
+      <c r="AG37" s="149"/>
+      <c r="AH37" s="156"/>
+      <c r="AI37" s="157"/>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="137"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="82"/>
+      <c r="AO37" s="136"/>
+      <c r="AP37" s="137"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="82"/>
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68">
+      <c r="A38" s="66">
         <v>72</v>
       </c>
-      <c r="B38" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="34" t="str">
+      <c r="B38" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="33" t="str">
         <f>IF(SUM(K38:AS38)=0," ",SUM(K38:AS38))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="39">
         <v>1</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="36">
+      <c r="F38" s="63"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="35">
         <v>43118</v>
       </c>
-      <c r="J38" s="90"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="143"/>
-      <c r="AE38" s="148"/>
-      <c r="AF38" s="130"/>
-      <c r="AG38" s="130"/>
-      <c r="AH38" s="130"/>
-      <c r="AI38" s="143"/>
-      <c r="AJ38" s="145"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="168"/>
+      <c r="AA38" s="159"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="159"/>
+      <c r="AD38" s="160"/>
+      <c r="AE38" s="168"/>
+      <c r="AF38" s="159"/>
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="159"/>
+      <c r="AI38" s="160"/>
+      <c r="AJ38" s="138"/>
       <c r="AK38" s="139"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="39"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="82"/>
       <c r="AO38" s="138"/>
-      <c r="AP38" s="128"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="84"/>
+      <c r="AP38" s="139"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="82"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="92"/>
-      <c r="B39" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="111">
+      <c r="A39" s="90"/>
+      <c r="B39" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="109">
         <f>SUM(C5+C11+C16+C29+C33+C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="111">
+        <v>96.4</v>
+      </c>
+      <c r="D39" s="109">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>93.7</v>
-      </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="114">
-        <f>SUM(K5:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="111">
-        <f>SUM(L5:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="115">
-        <f>SUM(M5:M38)</f>
-        <v>8</v>
-      </c>
-      <c r="N39" s="115">
-        <f>SUM(N5:N38)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="115">
-        <f>SUM(O5:O38)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="115">
-        <f>SUM(P5:P38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="111">
-        <f>SUM(Q5:Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="115">
-        <f>SUM(R5:R38)</f>
-        <v>8.4</v>
-      </c>
-      <c r="S39" s="111">
-        <f>SUM(S5:S38)</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T39" s="115">
-        <f>SUM(T5:T38)</f>
-        <v>8</v>
-      </c>
-      <c r="U39" s="115">
-        <f>SUM(U5:U38)</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="111">
-        <f>SUM(V5:V38)</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="115">
-        <f>SUM(W5:W38)</f>
-        <v>8</v>
-      </c>
-      <c r="X39" s="111">
-        <f>SUM(X5:X38)</f>
-        <v>8</v>
-      </c>
-      <c r="Y39" s="115">
-        <f>SUM(Y5:Y38)</f>
-        <v>8</v>
-      </c>
-      <c r="Z39" s="115">
-        <f>SUM(Z5:Z38)</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="111">
-        <f>SUM(AA5:AA38)</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="115">
-        <f>SUM(AB5:AB38)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="111">
-        <f>SUM(AC5:AC38)</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="115">
-        <f>SUM(AD5:AD38)</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="115">
-        <f>SUM(AE5:AE38)</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="111">
-        <f>SUM(AF5:AF38)</f>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="115">
-        <f>SUM(AG5:AG38)</f>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="111">
-        <f>SUM(AH5:AH38)</f>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="144">
-        <f>SUM(AI5:AI38)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="115">
-        <f>SUM(AJ5:AJ38)</f>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="111">
-        <f>SUM(AK5:AK38)</f>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="115">
-        <f>SUM(AL5:AL38)</f>
-        <v>8</v>
-      </c>
-      <c r="AM39" s="111">
-        <f>SUM(AM5:AM38)</f>
-        <v>8</v>
-      </c>
-      <c r="AN39" s="115">
-        <f>SUM(AN5:AN38)</f>
-        <v>8</v>
-      </c>
-      <c r="AO39" s="114">
-        <f>SUM(AO5:AO38)</f>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="111">
-        <f>SUM(AP5:AP38)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="115">
-        <f>SUM(AQ5:AQ38)</f>
-        <v>8</v>
-      </c>
-      <c r="AR39" s="111">
-        <f>SUM(AR5:AR38)</f>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="116">
-        <f>SUM(AS5:AS38)</f>
-        <v>1.5</v>
+        <v>14</v>
+      </c>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="112">
+        <f t="shared" ref="K39:AS39" si="2">SUM(K5:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="113">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="113">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS39" s="114">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="117"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="118"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
@@ -5643,31 +5549,31 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
-      <c r="X41" s="156"/>
-      <c r="Y41" s="156"/>
-      <c r="Z41" s="156"/>
-      <c r="AA41" s="156"/>
-      <c r="AB41" s="156"/>
-      <c r="AC41" s="156"/>
-      <c r="AD41" s="156"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="174"/>
+      <c r="V41" s="174"/>
+      <c r="W41" s="174"/>
+      <c r="X41" s="174"/>
+      <c r="Y41" s="174"/>
+      <c r="Z41" s="174"/>
+      <c r="AA41" s="174"/>
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="174"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="129"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -5677,34 +5583,30 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="154"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154"/>
-      <c r="S42" s="154"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="154"/>
-      <c r="W42" s="154"/>
-      <c r="X42" s="154"/>
-      <c r="Y42" s="154"/>
-      <c r="Z42" s="154"/>
-      <c r="AA42" s="154"/>
-      <c r="AB42" s="154"/>
-      <c r="AC42" s="154"/>
-      <c r="AD42" s="154"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="172"/>
+      <c r="P42" s="172"/>
+      <c r="Q42" s="172"/>
+      <c r="R42" s="172"/>
+      <c r="S42" s="172"/>
+      <c r="T42" s="172"/>
+      <c r="U42" s="172"/>
+      <c r="V42" s="172"/>
+      <c r="W42" s="172"/>
+      <c r="X42" s="172"/>
+      <c r="Y42" s="172"/>
+      <c r="Z42" s="172"/>
+      <c r="AA42" s="172"/>
+      <c r="AB42" s="172"/>
+      <c r="AC42" s="172"/>
+      <c r="AD42" s="172"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="170" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A43" s="125"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
       <c r="E43" s="12"/>
@@ -5713,31 +5615,29 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="154"/>
-      <c r="W43" s="154"/>
-      <c r="X43" s="154"/>
-      <c r="Y43" s="154"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="154"/>
-      <c r="AB43" s="154"/>
-      <c r="AC43" s="154"/>
-      <c r="AD43" s="154"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14"/>
-      <c r="B59" s="12"/>
-      <c r="J59" s="5"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="172"/>
+      <c r="O43" s="172"/>
+      <c r="P43" s="172"/>
+      <c r="Q43" s="172"/>
+      <c r="R43" s="172"/>
+      <c r="S43" s="172"/>
+      <c r="T43" s="172"/>
+      <c r="U43" s="172"/>
+      <c r="V43" s="172"/>
+      <c r="W43" s="172"/>
+      <c r="X43" s="172"/>
+      <c r="Y43" s="172"/>
+      <c r="Z43" s="172"/>
+      <c r="AA43" s="172"/>
+      <c r="AB43" s="172"/>
+      <c r="AC43" s="172"/>
+      <c r="AD43" s="172"/>
+    </row>
+    <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5772,37 +5672,37 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="126" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="124" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="121" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
+      <c r="A1" s="180"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5817,407 +5717,407 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="127" t="s">
+      <c r="A3" s="124" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="124" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="125">
+      <c r="A4" s="122">
         <f>Zeitplanung!K$4</f>
         <v>43073</v>
       </c>
-      <c r="B4" s="123">
+      <c r="B4" s="120">
         <f>Zeitplanung!K39</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="125">
+      <c r="A5" s="122">
         <f>Zeitplanung!L$4</f>
         <v>43074</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="120">
         <f>Zeitplanung!L39</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="125">
+      <c r="A6" s="122">
         <f>Zeitplanung!M$4</f>
         <v>43075</v>
       </c>
-      <c r="B6" s="123">
+      <c r="B6" s="120">
         <f>Zeitplanung!M39</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="125">
+      <c r="A7" s="122">
         <f>Zeitplanung!N$4</f>
         <v>43076</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="120">
         <f>Zeitplanung!N39</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="125">
+      <c r="A8" s="122">
         <f>Zeitplanung!O$4</f>
         <v>43077</v>
       </c>
-      <c r="B8" s="123">
+      <c r="B8" s="120">
         <f>Zeitplanung!O39</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="125">
+      <c r="A9" s="122">
         <f>Zeitplanung!P$4</f>
         <v>43080</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="120">
         <f>Zeitplanung!P39</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="125">
+      <c r="A10" s="122">
         <f>Zeitplanung!Q$4</f>
         <v>43081</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="120">
         <f>Zeitplanung!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="125">
+      <c r="A11" s="122">
         <f>Zeitplanung!R$4</f>
         <v>43082</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="120">
         <f>Zeitplanung!R39</f>
-        <v>8.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="125">
+      <c r="A12" s="122">
         <f>Zeitplanung!S$4</f>
         <v>43083</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="120">
         <f>Zeitplanung!S39</f>
-        <v>8.3000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="125">
+      <c r="A13" s="122">
         <f>Zeitplanung!T$4</f>
         <v>43084</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="120">
         <f>Zeitplanung!T39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="125">
+      <c r="A14" s="122">
         <f>Zeitplanung!U$4</f>
         <v>43087</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="120">
         <f>Zeitplanung!U39</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="125">
+      <c r="A15" s="122">
         <f>Zeitplanung!V$4</f>
         <v>43088</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="120">
         <f>Zeitplanung!V39</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="125">
+      <c r="A16" s="122">
         <f>Zeitplanung!W$4</f>
         <v>43089</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="120">
         <f>Zeitplanung!W39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="125">
+      <c r="A17" s="122">
         <f>Zeitplanung!X$4</f>
         <v>43090</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="120">
         <f>Zeitplanung!X39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="125">
+      <c r="A18" s="122">
         <f>Zeitplanung!Y$4</f>
         <v>43091</v>
       </c>
-      <c r="B18" s="123">
+      <c r="B18" s="120">
         <f>Zeitplanung!Y39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="125">
+      <c r="A19" s="122">
         <f>Zeitplanung!Z$4</f>
         <v>43094</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="120">
         <f>Zeitplanung!Z39</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="125">
+      <c r="A20" s="122">
         <f>Zeitplanung!AA$4</f>
         <v>43095</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="120">
         <f>Zeitplanung!AA39</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="125">
+      <c r="A21" s="122">
         <f>Zeitplanung!AB$4</f>
         <v>43096</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="120">
         <f>Zeitplanung!AB39</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="125">
+      <c r="A22" s="122">
         <f>Zeitplanung!AC$4</f>
         <v>43097</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="120">
         <f>Zeitplanung!AC39</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="125">
+      <c r="A23" s="122">
         <f>Zeitplanung!AD$4</f>
         <v>43098</v>
       </c>
-      <c r="B23" s="123">
+      <c r="B23" s="120">
         <f>Zeitplanung!AD39</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="125">
+      <c r="A24" s="122">
         <f>Zeitplanung!AE$4</f>
         <v>43101</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="120">
         <f>Zeitplanung!AE39</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="125">
+      <c r="A25" s="122">
         <f>Zeitplanung!AF$4</f>
         <v>43102</v>
       </c>
-      <c r="B25" s="123">
+      <c r="B25" s="120">
         <f>Zeitplanung!AF39</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="125">
+      <c r="A26" s="122">
         <f>Zeitplanung!AG$4</f>
         <v>43103</v>
       </c>
-      <c r="B26" s="123">
+      <c r="B26" s="120">
         <f>Zeitplanung!AG39</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="125">
+      <c r="A27" s="122">
         <f>Zeitplanung!AH$4</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="123">
+      <c r="B27" s="120">
         <f>Zeitplanung!AH39</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="125">
+      <c r="A28" s="122">
         <f>Zeitplanung!AI$4</f>
         <v>43105</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="120">
         <f>Zeitplanung!AI39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="125">
+      <c r="A29" s="122">
         <f>Zeitplanung!AJ$4</f>
         <v>43108</v>
       </c>
-      <c r="B29" s="123">
+      <c r="B29" s="120">
         <f>Zeitplanung!AJ39</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="125">
+      <c r="A30" s="122">
         <f>Zeitplanung!AK$4</f>
         <v>43109</v>
       </c>
-      <c r="B30" s="123">
+      <c r="B30" s="120">
         <f>Zeitplanung!AK39</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="125">
+      <c r="A31" s="122">
         <f>Zeitplanung!AL$4</f>
         <v>43110</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="120">
         <f>Zeitplanung!AL39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="125">
+      <c r="A32" s="122">
         <f>Zeitplanung!AM$4</f>
         <v>43111</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="120">
         <f>Zeitplanung!AM39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="125">
+      <c r="A33" s="122">
         <f>Zeitplanung!AN$4</f>
         <v>43112</v>
       </c>
-      <c r="B33" s="123">
+      <c r="B33" s="120">
         <f>Zeitplanung!AN39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="163"/>
+      <c r="A36" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="182"/>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="159" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="160"/>
-      <c r="C37" s="123">
+      <c r="A37" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="179"/>
+      <c r="C37" s="120">
         <f>Zeitplanung!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="123">
+        <v>16</v>
+      </c>
+      <c r="D37" s="120">
         <f>Zeitplanung!D5</f>
-        <v>16.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="165"/>
-      <c r="C38" s="123">
+      <c r="A38" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="184"/>
+      <c r="C38" s="120">
         <f>Zeitplanung!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="123">
+        <v>6</v>
+      </c>
+      <c r="D38" s="120">
         <f>Zeitplanung!D11</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="179"/>
+      <c r="C39" s="120">
+        <f>Zeitplanung!C16</f>
+        <v>63.400000000000006</v>
+      </c>
+      <c r="D39" s="120">
+        <f>Zeitplanung!D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="184"/>
+      <c r="C40" s="120">
+        <f>Zeitplanung!C29</f>
+        <v>6</v>
+      </c>
+      <c r="D40" s="120">
+        <f>Zeitplanung!D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="179"/>
+      <c r="C41" s="120">
+        <f>Zeitplanung!C33</f>
+        <v>5</v>
+      </c>
+      <c r="D41" s="120">
+        <f>Zeitplanung!D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="123">
-        <f>Zeitplanung!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="123">
-        <f>Zeitplanung!D16</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="164" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="123">
-        <f>Zeitplanung!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="123">
-        <f>Zeitplanung!D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="159" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="123">
-        <f>Zeitplanung!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="123">
-        <f>Zeitplanung!D33</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="123">
+      <c r="B42" s="179"/>
+      <c r="C42" s="120">
         <f>Zeitplanung!C36</f>
         <v>0</v>
       </c>
-      <c r="D42" s="123">
+      <c r="D42" s="120">
         <f>Zeitplanung!D36</f>
         <v>0</v>
       </c>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -329,6 +329,12 @@
   <si>
     <t>Projektende</t>
   </si>
+  <si>
+    <t>Geplant</t>
+  </si>
+  <si>
+    <t>§1.5</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -468,8 +474,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +541,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="81">
     <border>
@@ -1541,7 +1560,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1644,15 +1663,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,21 +1672,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1686,21 +1684,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,9 +1697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,36 +1735,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1911,142 +1873,25 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2061,15 +1906,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2087,6 +1923,246 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2099,6 +2175,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCCC0DA"/>
       <color rgb="FFFFFF66"/>
@@ -2145,6 +2222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2306,13 +2384,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2321,13 +2399,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2366,13 +2444,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,11 +2470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="308720128"/>
-        <c:axId val="308725616"/>
+        <c:axId val="309381064"/>
+        <c:axId val="309381848"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="308720128"/>
+        <c:axId val="309381064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,14 +2484,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308725616"/>
+        <c:crossAx val="309381848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="308725616"/>
+        <c:axId val="309381848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,13 +2502,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308720128"/>
+        <c:crossAx val="309381064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2588,13 +2667,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2623,11 +2702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="308725224"/>
-        <c:axId val="308722088"/>
+        <c:axId val="309383808"/>
+        <c:axId val="309379888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308725224"/>
+        <c:axId val="309383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308722088"/>
+        <c:crossAx val="309379888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2645,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308722088"/>
+        <c:axId val="309379888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,13 +2735,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308725224"/>
+        <c:crossAx val="309383808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3097,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3121,38 +3201,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -3169,73 +3249,73 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="170" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="19"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="169" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="169" t="s">
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="169" t="s">
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="169" t="s">
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="169" t="s">
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="171"/>
-      <c r="AO3" s="169" t="s">
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="171"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="111"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="113"/>
     </row>
     <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -3248,19 +3328,19 @@
       <c r="F4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="99" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="107">
+      <c r="K4" s="88">
         <v>43073</v>
       </c>
       <c r="L4" s="25">
@@ -3374,7 +3454,7 @@
         <f>AL4+1</f>
         <v>43111</v>
       </c>
-      <c r="AN4" s="71">
+      <c r="AN4" s="58">
         <f>AM4+1</f>
         <v>43112</v>
       </c>
@@ -3394,73 +3474,73 @@
         <f>AQ4+1</f>
         <v>43118</v>
       </c>
-      <c r="AS4" s="71">
+      <c r="AS4" s="58">
         <f>AR4+1</f>
         <v>43119</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91">
+      <c r="A5" s="72">
         <v>10</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="75">
         <f>SUM(C6:C10)</f>
         <v>16</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="76">
         <f>SUM(D6:D10)</f>
-        <v>8.5</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="104"/>
+        <v>13.2</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="85"/>
     </row>
     <row r="6" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66">
+      <c r="A6" s="53">
         <v>11</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="32">
@@ -3474,352 +3554,362 @@
         <v>1</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="58"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="36">
+      <c r="J6" s="66"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127">
         <v>2</v>
       </c>
-      <c r="N6" s="149"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="155"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="137"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="137"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="73"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="136"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="137"/>
+      <c r="AP6" s="131"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="138"/>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66">
+      <c r="A7" s="53">
         <v>12</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="37">
         <v>6.5</v>
       </c>
       <c r="D7" s="33">
         <f>IF(SUM(K7:AS7)=0," ",SUM(K7:AS7))</f>
         <v>6</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="36">
         <v>1</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="36">
+      <c r="J7" s="67"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="127">
         <v>6</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="139"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="75"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="144"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="147"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="147"/>
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="142"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="149"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="149"/>
     </row>
     <row r="8" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66">
+      <c r="A8" s="53">
         <v>13</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="33">
         <f>IF(SUM(K8:AS8)=0," ",SUM(K8:AS8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="39">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="36">
         <v>1</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="58"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="159"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="139"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="146"/>
-      <c r="AP8" s="139"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="76"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="196">
+        <v>1.5</v>
+      </c>
+      <c r="U8" s="141"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="196">
+        <v>1.5</v>
+      </c>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="150"/>
+      <c r="AN8" s="203">
+        <v>1.5</v>
+      </c>
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="142"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="150"/>
+      <c r="AS8" s="203" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66">
+      <c r="A9" s="53">
         <v>14</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="37">
         <v>0.5</v>
       </c>
       <c r="D9" s="33">
         <f>IF(SUM(K9:AS9)=0," ",SUM(K9:AS9))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="36">
         <v>1</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="58"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="138"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="139"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="76"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="127">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="195">
+        <v>0.3</v>
+      </c>
+      <c r="T9" s="144"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="141"/>
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="143"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="141"/>
+      <c r="AP9" s="142"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="151"/>
     </row>
     <row r="10" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66">
+      <c r="A10" s="53">
         <v>15</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="42">
         <v>5</v>
       </c>
       <c r="D10" s="33" t="str">
         <f>IF(SUM(K10:AS10)=0," ",SUM(K10:AS10))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="41">
         <v>1</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="45"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="162"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="161"/>
       <c r="AD10" s="163"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="162"/>
+      <c r="AE10" s="160"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="161"/>
       <c r="AI10" s="163"/>
-      <c r="AJ10" s="147"/>
-      <c r="AK10" s="141"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="141"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="76"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="164"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="158"/>
+      <c r="AR10" s="165"/>
+      <c r="AS10" s="151"/>
     </row>
     <row r="11" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91">
+      <c r="A11" s="72">
         <v>20</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="86">
         <f>SUM(C12:C15)</f>
         <v>6</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="75">
         <f>SUM(D12:D15)</f>
         <v>5.5</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="104"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="171"/>
+      <c r="AF11" s="168"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="167"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="171"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="168"/>
+      <c r="AM11" s="169"/>
+      <c r="AN11" s="173"/>
+      <c r="AO11" s="171"/>
+      <c r="AP11" s="168"/>
+      <c r="AQ11" s="168"/>
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="173"/>
     </row>
     <row r="12" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67">
+      <c r="A12" s="54">
         <v>21</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="32">
         <v>6</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="45">
         <f>IF(SUM(K12:AS12)=0," ",SUM(K12:AS12))</f>
         <v>5.5</v>
       </c>
@@ -3827,1045 +3917,1079 @@
         <v>1</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="42">
+      <c r="J12" s="67"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="139">
         <v>5</v>
       </c>
-      <c r="N12" s="149"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="36">
+      <c r="N12" s="128"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="127">
         <v>0.5</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="156"/>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="142"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="142"/>
-      <c r="AP12" s="137"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="78"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="132"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="137"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="132"/>
+      <c r="AR12" s="175"/>
+      <c r="AS12" s="176"/>
     </row>
     <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67">
+      <c r="A13" s="54">
         <v>22</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="57"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="58"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="142"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="142"/>
-      <c r="AP13" s="137"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="78"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="132"/>
+      <c r="AM13" s="175"/>
+      <c r="AN13" s="176"/>
+      <c r="AO13" s="137"/>
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="132"/>
+      <c r="AR13" s="175"/>
+      <c r="AS13" s="176"/>
     </row>
     <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="67">
+      <c r="A14" s="54">
         <v>23</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="57"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="31"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="58"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="149"/>
-      <c r="AH14" s="156"/>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="137"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="137"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="78"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="137"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="132"/>
+      <c r="AM14" s="175"/>
+      <c r="AN14" s="176"/>
+      <c r="AO14" s="137"/>
+      <c r="AP14" s="131"/>
+      <c r="AQ14" s="132"/>
+      <c r="AR14" s="175"/>
+      <c r="AS14" s="176"/>
     </row>
     <row r="15" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67">
+      <c r="A15" s="54">
         <v>24</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="57" t="str">
+      <c r="D15" s="45" t="str">
         <f t="shared" ref="D15" si="0">IF(SUM(K15:AD15)=0," ",SUM(K15:AD15))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="58"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="137"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="78"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="175"/>
+      <c r="AN15" s="176"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="132"/>
+      <c r="AR15" s="175"/>
+      <c r="AS15" s="176"/>
     </row>
     <row r="16" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91">
+      <c r="A16" s="72">
         <v>30</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="75">
         <f>SUM(C17:C28)</f>
         <v>63.400000000000006</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="76">
         <f>SUM(D17:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="104"/>
+        <v>45</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="169"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="169"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="171"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="167"/>
+      <c r="AI16" s="172"/>
+      <c r="AJ16" s="171"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="168"/>
+      <c r="AM16" s="169"/>
+      <c r="AN16" s="173"/>
+      <c r="AO16" s="171"/>
+      <c r="AP16" s="168"/>
+      <c r="AQ16" s="168"/>
+      <c r="AR16" s="169"/>
+      <c r="AS16" s="173"/>
     </row>
     <row r="17" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67">
+      <c r="A17" s="54">
         <v>31</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="32">
         <v>22</v>
       </c>
-      <c r="D17" s="57" t="str">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v xml:space="preserve"> </v>
+        <v>21.5</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="58"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="34"/>
       <c r="I17" s="35">
         <v>43089</v>
       </c>
-      <c r="J17" s="86"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="142"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="142"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="78"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="197">
+        <v>7</v>
+      </c>
+      <c r="T17" s="198">
+        <v>6.5</v>
+      </c>
+      <c r="U17" s="137"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="199">
+        <v>8</v>
+      </c>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="178"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
+      <c r="AJ17" s="137"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="132"/>
+      <c r="AM17" s="175"/>
+      <c r="AN17" s="176"/>
+      <c r="AO17" s="137"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="132"/>
+      <c r="AR17" s="175"/>
+      <c r="AS17" s="176"/>
     </row>
     <row r="18" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="67">
+      <c r="A18" s="54">
         <v>32</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="62" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="32">
         <v>4.5</v>
       </c>
-      <c r="D18" s="57" t="str">
+      <c r="D18" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>4.5</v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="34"/>
       <c r="I18" s="35">
         <v>43090</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="156"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="142"/>
-      <c r="AK18" s="137"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="142"/>
-      <c r="AP18" s="137"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="78"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="197">
+        <v>4.5</v>
+      </c>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="178"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
+      <c r="AJ18" s="137"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="132"/>
+      <c r="AM18" s="175"/>
+      <c r="AN18" s="176"/>
+      <c r="AO18" s="137"/>
+      <c r="AP18" s="131"/>
+      <c r="AQ18" s="132"/>
+      <c r="AR18" s="175"/>
+      <c r="AS18" s="176"/>
     </row>
     <row r="19" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67">
+      <c r="A19" s="54">
         <v>33</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="32">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D19" s="57" t="str">
+      <c r="D19" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>10</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="34"/>
       <c r="I19" s="35">
         <v>43091</v>
       </c>
-      <c r="J19" s="86"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="156"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="142"/>
-      <c r="AK19" s="137"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="137"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="78"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="197">
+        <v>3.5</v>
+      </c>
+      <c r="Y19" s="198">
+        <v>6.5</v>
+      </c>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="178"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="131"/>
+      <c r="AL19" s="132"/>
+      <c r="AM19" s="175"/>
+      <c r="AN19" s="176"/>
+      <c r="AO19" s="137"/>
+      <c r="AP19" s="131"/>
+      <c r="AQ19" s="132"/>
+      <c r="AR19" s="175"/>
+      <c r="AS19" s="176"/>
     </row>
     <row r="20" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67">
+      <c r="A20" s="54">
         <v>34</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="62" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="32">
         <v>1.5</v>
       </c>
-      <c r="D20" s="57" t="str">
+      <c r="D20" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="34"/>
       <c r="I20" s="35">
         <v>42745</v>
       </c>
-      <c r="J20" s="86"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="156"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="142"/>
-      <c r="AK20" s="137"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="137"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="78"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="136"/>
+      <c r="AE20" s="178"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
+      <c r="AJ20" s="137"/>
+      <c r="AK20" s="131"/>
+      <c r="AL20" s="197">
+        <v>1.5</v>
+      </c>
+      <c r="AM20" s="175"/>
+      <c r="AN20" s="176"/>
+      <c r="AO20" s="137"/>
+      <c r="AP20" s="131"/>
+      <c r="AQ20" s="132"/>
+      <c r="AR20" s="175"/>
+      <c r="AS20" s="176"/>
     </row>
     <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="67">
+      <c r="A21" s="54">
         <v>35</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="32">
         <v>6.5</v>
       </c>
-      <c r="D21" s="57" t="str">
+      <c r="D21" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>6.5</v>
       </c>
       <c r="E21" s="31">
         <v>2</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35">
         <v>42745</v>
       </c>
-      <c r="J21" s="86"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="157"/>
-      <c r="AJ21" s="142"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="142"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="78"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="178"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="197">
+        <v>6.5</v>
+      </c>
+      <c r="AM21" s="175"/>
+      <c r="AN21" s="176"/>
+      <c r="AO21" s="137"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="132"/>
+      <c r="AR21" s="175"/>
+      <c r="AS21" s="176"/>
     </row>
     <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="67">
+      <c r="A22" s="54">
         <v>36</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="57" t="str">
+      <c r="D22" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="E22" s="31">
         <v>2</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="58"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="34"/>
       <c r="I22" s="35">
         <v>42746</v>
       </c>
-      <c r="J22" s="86"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="157"/>
-      <c r="AJ22" s="142"/>
-      <c r="AK22" s="137"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="142"/>
-      <c r="AP22" s="137"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="78"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="178"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="136"/>
+      <c r="AE22" s="178"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="132"/>
+      <c r="AM22" s="200">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="176"/>
+      <c r="AO22" s="137"/>
+      <c r="AP22" s="131"/>
+      <c r="AQ22" s="132"/>
+      <c r="AR22" s="175"/>
+      <c r="AS22" s="176"/>
     </row>
     <row r="23" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="67">
+      <c r="A23" s="54">
         <v>37</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="37">
         <v>5</v>
       </c>
       <c r="D23" s="33" t="str">
         <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="36">
         <v>2</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="58"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35">
         <v>42746</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="159"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="159"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="159"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="145"/>
-      <c r="AP23" s="139"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="76"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="144"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="146"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="146"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="146"/>
+      <c r="AI23" s="147"/>
+      <c r="AJ23" s="181"/>
+      <c r="AK23" s="142"/>
+      <c r="AL23" s="143"/>
+      <c r="AM23" s="201">
+        <v>5</v>
+      </c>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="181"/>
+      <c r="AP23" s="142"/>
+      <c r="AQ23" s="143"/>
+      <c r="AR23" s="150"/>
+      <c r="AS23" s="151"/>
     </row>
     <row r="24" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="67">
+      <c r="A24" s="54">
         <v>38</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="32">
         <v>6.7</v>
       </c>
-      <c r="D24" s="57" t="str">
+      <c r="D24" s="45">
         <f>IF(SUM(K24:AS24)=0," ",SUM(K24:AS24))</f>
-        <v xml:space="preserve"> </v>
+        <v>7</v>
       </c>
       <c r="E24" s="31">
         <v>2</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="58"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="34"/>
       <c r="I24" s="35">
         <v>42747</v>
       </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="157"/>
-      <c r="AJ24" s="142"/>
-      <c r="AK24" s="137"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="142"/>
-      <c r="AP24" s="137"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="78"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="178"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="131"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="200">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="202">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="137"/>
+      <c r="AP24" s="131"/>
+      <c r="AQ24" s="132"/>
+      <c r="AR24" s="175"/>
+      <c r="AS24" s="176"/>
     </row>
     <row r="25" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="67">
+      <c r="A25" s="54">
         <v>39</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="32">
         <v>3.5</v>
       </c>
-      <c r="D25" s="57" t="str">
+      <c r="D25" s="45">
         <f>IF(SUM(K25:AS25)=0," ",SUM(K25:AS25))</f>
-        <v xml:space="preserve"> </v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="31">
         <v>3</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="58"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="34"/>
       <c r="I25" s="35">
         <v>42752</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="142"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="164"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="142"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="142"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="78"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="178"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="131"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="175"/>
+      <c r="AN25" s="202">
+        <v>1.5</v>
+      </c>
+      <c r="AO25" s="137"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="197">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="175"/>
+      <c r="AS25" s="176"/>
     </row>
     <row r="26" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="67">
+      <c r="A26" s="54">
         <v>40</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="62" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="32">
         <v>2</v>
       </c>
-      <c r="D26" s="57" t="str">
+      <c r="D26" s="45">
         <f>IF(SUM(K26:AS26)=0," ",SUM(K26:AS26))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="E26" s="31">
         <v>3</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="58"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="34"/>
       <c r="I26" s="35">
         <v>42752</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="156"/>
-      <c r="AI26" s="157"/>
-      <c r="AJ26" s="142"/>
-      <c r="AK26" s="137"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="142"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="78"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="175"/>
+      <c r="AN26" s="176"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="197">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="175"/>
+      <c r="AS26" s="176"/>
     </row>
     <row r="27" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67">
+      <c r="A27" s="54">
         <v>41</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="37">
         <v>0.5</v>
       </c>
       <c r="D27" s="33" t="str">
         <f>IF(SUM(K27:AD27)=0," ",SUM(K27:AD27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="36">
         <v>3</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="58"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="34"/>
       <c r="I27" s="35">
         <v>42752</v>
       </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="159"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="139"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="145"/>
-      <c r="AP27" s="139"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="76"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="144"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="146"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="147"/>
+      <c r="AJ27" s="181"/>
+      <c r="AK27" s="142"/>
+      <c r="AL27" s="143"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="181"/>
+      <c r="AP27" s="142"/>
+      <c r="AQ27" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="AR27" s="150"/>
+      <c r="AS27" s="151"/>
     </row>
     <row r="28" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="67">
+      <c r="A28" s="54">
         <v>42</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="37">
         <v>0.5</v>
       </c>
       <c r="D28" s="33" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="36">
         <v>3</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="58"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="34"/>
       <c r="I28" s="35">
         <v>42752</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="159"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="159"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="159"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="139"/>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="76"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="142"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="146"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="146"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="146"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="181"/>
+      <c r="AK28" s="142"/>
+      <c r="AL28" s="143"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="181"/>
+      <c r="AP28" s="142"/>
+      <c r="AQ28" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="AR28" s="150"/>
+      <c r="AS28" s="151"/>
     </row>
     <row r="29" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="91">
+      <c r="A29" s="72">
         <v>50</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="75">
         <f>SUM(C30:C32)</f>
         <v>6</v>
       </c>
-      <c r="D29" s="95">
+      <c r="D29" s="76">
         <f>SUM(D30:D32)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="102"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="93"/>
-      <c r="AK29" s="102"/>
-      <c r="AL29" s="102"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="93"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="104"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="167"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="171"/>
+      <c r="AF29" s="168"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="167"/>
+      <c r="AI29" s="172"/>
+      <c r="AJ29" s="171"/>
+      <c r="AK29" s="168"/>
+      <c r="AL29" s="168"/>
+      <c r="AM29" s="169"/>
+      <c r="AN29" s="173"/>
+      <c r="AO29" s="171"/>
+      <c r="AP29" s="168"/>
+      <c r="AQ29" s="168"/>
+      <c r="AR29" s="169"/>
+      <c r="AS29" s="173"/>
     </row>
     <row r="30" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="67">
+      <c r="A30" s="54">
         <v>50</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="32">
         <v>1</v>
       </c>
-      <c r="D30" s="57" t="str">
+      <c r="D30" s="45" t="str">
         <f>IF(SUM(K30:AS30)=0," ",SUM(K30:AS30))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4873,57 +4997,57 @@
         <v>1</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="58"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="137"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="142"/>
-      <c r="AP30" s="137"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="81"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="178"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="182"/>
+      <c r="AO30" s="137"/>
+      <c r="AP30" s="131"/>
+      <c r="AQ30" s="132"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="182"/>
     </row>
     <row r="31" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67">
+      <c r="A31" s="54">
         <v>51</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="32">
         <v>2</v>
       </c>
-      <c r="D31" s="57" t="str">
+      <c r="D31" s="45" t="str">
         <f>IF(SUM(K31:AS31)=0," ",SUM(K31:AS31))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4931,334 +5055,340 @@
         <v>1</v>
       </c>
       <c r="F31" s="32"/>
-      <c r="G31" s="58"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="34"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="142"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="164"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="142"/>
-      <c r="AK31" s="139"/>
-      <c r="AL31" s="43"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="142"/>
-      <c r="AP31" s="139"/>
-      <c r="AQ31" s="43"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="82"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="178"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="142"/>
+      <c r="AL31" s="143"/>
+      <c r="AM31" s="143"/>
+      <c r="AN31" s="183"/>
+      <c r="AO31" s="137"/>
+      <c r="AP31" s="142"/>
+      <c r="AQ31" s="143"/>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="183"/>
     </row>
     <row r="32" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="67">
+      <c r="A32" s="54">
         <v>52</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="43">
         <v>3</v>
       </c>
-      <c r="D32" s="57" t="str">
+      <c r="D32" s="45" t="str">
         <f>IF(SUM(K32:AS32)=0," ",SUM(K32:AS32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="47">
         <v>1</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="165"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="167"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="166"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="166"/>
-      <c r="AI32" s="167"/>
-      <c r="AJ32" s="143"/>
-      <c r="AK32" s="137"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="143"/>
-      <c r="AP32" s="137"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="75"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="185"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="186"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="188"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="189"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="188"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="189"/>
+      <c r="AI32" s="190"/>
+      <c r="AJ32" s="184"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="149"/>
+      <c r="AO32" s="184"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="132"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="149"/>
     </row>
     <row r="33" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="91">
+      <c r="A33" s="72">
         <v>60</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="75">
         <f>SUM(C34:C35)</f>
         <v>5</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="76">
         <f>SUM(D34:D35)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="102"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="93"/>
-      <c r="AK33" s="102"/>
-      <c r="AL33" s="102"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="104"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="169"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="171"/>
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="167"/>
+      <c r="AI33" s="172"/>
+      <c r="AJ33" s="171"/>
+      <c r="AK33" s="168"/>
+      <c r="AL33" s="168"/>
+      <c r="AM33" s="169"/>
+      <c r="AN33" s="173"/>
+      <c r="AO33" s="171"/>
+      <c r="AP33" s="168"/>
+      <c r="AQ33" s="168"/>
+      <c r="AR33" s="169"/>
+      <c r="AS33" s="173"/>
     </row>
     <row r="34" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="68">
+      <c r="A34" s="55">
         <v>61</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="32">
         <v>5</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="31">
         <v>3</v>
       </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="58"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="137"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="164"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="164"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="142"/>
-      <c r="AK34" s="137"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="81"/>
-      <c r="AO34" s="142"/>
-      <c r="AP34" s="137"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="81"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="199">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S34" s="197">
+        <v>0.7</v>
+      </c>
+      <c r="T34" s="133"/>
+      <c r="U34" s="137"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="178"/>
+      <c r="AA34" s="135"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="135"/>
+      <c r="AD34" s="136"/>
+      <c r="AE34" s="178"/>
+      <c r="AF34" s="135"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="135"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="131"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="182"/>
+      <c r="AO34" s="137"/>
+      <c r="AP34" s="131"/>
+      <c r="AQ34" s="197">
+        <v>3</v>
+      </c>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="182"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="68">
+      <c r="A35" s="55">
         <v>62</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="61" t="str">
+      <c r="B35" s="64"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="48" t="str">
         <f>IF(SUM(K35:AD35)=0," ",SUM(K35:AD35))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="56"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="165"/>
-      <c r="AA35" s="166"/>
-      <c r="AB35" s="154"/>
-      <c r="AC35" s="166"/>
-      <c r="AD35" s="167"/>
-      <c r="AE35" s="165"/>
-      <c r="AF35" s="166"/>
-      <c r="AG35" s="154"/>
-      <c r="AH35" s="166"/>
-      <c r="AI35" s="167"/>
-      <c r="AJ35" s="148"/>
-      <c r="AK35" s="144"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="148"/>
-      <c r="AP35" s="144"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="75"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="185"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="186"/>
+      <c r="Y35" s="187"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="189"/>
+      <c r="AB35" s="162"/>
+      <c r="AC35" s="189"/>
+      <c r="AD35" s="190"/>
+      <c r="AE35" s="188"/>
+      <c r="AF35" s="189"/>
+      <c r="AG35" s="162"/>
+      <c r="AH35" s="189"/>
+      <c r="AI35" s="190"/>
+      <c r="AJ35" s="193"/>
+      <c r="AK35" s="185"/>
+      <c r="AL35" s="186"/>
+      <c r="AM35" s="186"/>
+      <c r="AN35" s="149"/>
+      <c r="AO35" s="193"/>
+      <c r="AP35" s="185"/>
+      <c r="AQ35" s="186"/>
+      <c r="AR35" s="186"/>
+      <c r="AS35" s="149"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="91">
+      <c r="A36" s="72">
         <v>70</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="75">
         <f>SUM(C37:C38)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="76">
         <f>SUM(D37:D38)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="98"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="102"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="102"/>
-      <c r="AG36" s="103"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="93"/>
-      <c r="AK36" s="102"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="104"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="104"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="169"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="171"/>
+      <c r="Q36" s="168"/>
+      <c r="R36" s="169"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="172"/>
+      <c r="U36" s="171"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="169"/>
+      <c r="X36" s="167"/>
+      <c r="Y36" s="172"/>
+      <c r="Z36" s="171"/>
+      <c r="AA36" s="168"/>
+      <c r="AB36" s="169"/>
+      <c r="AC36" s="167"/>
+      <c r="AD36" s="172"/>
+      <c r="AE36" s="171"/>
+      <c r="AF36" s="168"/>
+      <c r="AG36" s="169"/>
+      <c r="AH36" s="167"/>
+      <c r="AI36" s="172"/>
+      <c r="AJ36" s="171"/>
+      <c r="AK36" s="168"/>
+      <c r="AL36" s="168"/>
+      <c r="AM36" s="169"/>
+      <c r="AN36" s="173"/>
+      <c r="AO36" s="171"/>
+      <c r="AP36" s="168"/>
+      <c r="AQ36" s="168"/>
+      <c r="AR36" s="169"/>
+      <c r="AS36" s="173"/>
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="67">
+      <c r="A37" s="54">
         <v>71</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="57" t="str">
+      <c r="D37" s="45" t="str">
         <f>IF(SUM(K37:AS37)=0," ",SUM(K37:AS37))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5266,278 +5396,278 @@
         <v>2</v>
       </c>
       <c r="F37" s="32"/>
-      <c r="G37" s="58"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="34"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="150"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="142"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="164"/>
-      <c r="AA37" s="156"/>
-      <c r="AB37" s="149"/>
-      <c r="AC37" s="156"/>
-      <c r="AD37" s="157"/>
-      <c r="AE37" s="164"/>
-      <c r="AF37" s="156"/>
-      <c r="AG37" s="149"/>
-      <c r="AH37" s="156"/>
-      <c r="AI37" s="157"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="137"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="82"/>
-      <c r="AO37" s="136"/>
-      <c r="AP37" s="137"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="82"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="133"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="133"/>
+      <c r="Z37" s="178"/>
+      <c r="AA37" s="135"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="135"/>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="178"/>
+      <c r="AF37" s="135"/>
+      <c r="AG37" s="128"/>
+      <c r="AH37" s="135"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="131"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="183"/>
+      <c r="AO37" s="130"/>
+      <c r="AP37" s="131"/>
+      <c r="AQ37" s="132"/>
+      <c r="AR37" s="132"/>
+      <c r="AS37" s="183"/>
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="66">
+      <c r="A38" s="53">
         <v>72</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="33" t="str">
         <f>IF(SUM(K38:AS38)=0," ",SUM(K38:AS38))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="36">
         <v>1</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="64"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="35">
         <v>43118</v>
       </c>
-      <c r="J38" s="88"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="150"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="139"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="168"/>
-      <c r="AA38" s="159"/>
-      <c r="AB38" s="149"/>
-      <c r="AC38" s="159"/>
-      <c r="AD38" s="160"/>
-      <c r="AE38" s="168"/>
-      <c r="AF38" s="159"/>
-      <c r="AG38" s="149"/>
-      <c r="AH38" s="159"/>
-      <c r="AI38" s="160"/>
-      <c r="AJ38" s="138"/>
-      <c r="AK38" s="139"/>
-      <c r="AL38" s="43"/>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="82"/>
-      <c r="AO38" s="138"/>
-      <c r="AP38" s="139"/>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="43"/>
-      <c r="AS38" s="82"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="142"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="144"/>
+      <c r="U38" s="181"/>
+      <c r="V38" s="142"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="144"/>
+      <c r="Z38" s="194"/>
+      <c r="AA38" s="146"/>
+      <c r="AB38" s="128"/>
+      <c r="AC38" s="146"/>
+      <c r="AD38" s="147"/>
+      <c r="AE38" s="194"/>
+      <c r="AF38" s="146"/>
+      <c r="AG38" s="128"/>
+      <c r="AH38" s="146"/>
+      <c r="AI38" s="147"/>
+      <c r="AJ38" s="141"/>
+      <c r="AK38" s="142"/>
+      <c r="AL38" s="143"/>
+      <c r="AM38" s="143"/>
+      <c r="AN38" s="183"/>
+      <c r="AO38" s="141"/>
+      <c r="AP38" s="142"/>
+      <c r="AQ38" s="143"/>
+      <c r="AR38" s="143"/>
+      <c r="AS38" s="183"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="90"/>
-      <c r="B39" s="108" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="109">
+      <c r="C39" s="90">
         <f>SUM(C5+C11+C16+C29+C33+C36)</f>
         <v>96.4</v>
       </c>
-      <c r="D39" s="109">
+      <c r="D39" s="90">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>14</v>
-      </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="112">
+        <v>63.7</v>
+      </c>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="93">
         <f t="shared" ref="K39:AS39" si="2">SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="109">
+      <c r="L39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M39" s="113">
+      <c r="M39" s="94">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N39" s="113">
+      <c r="N39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="113">
+      <c r="O39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="113">
+      <c r="P39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="109">
+      <c r="Q39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="113">
+      <c r="R39" s="94">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="S39" s="109">
+        <v>8</v>
+      </c>
+      <c r="S39" s="90">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="T39" s="94">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T39" s="113">
+      <c r="V39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39" s="113">
+      <c r="W39" s="94">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X39" s="90">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y39" s="94">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Z39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V39" s="109">
+      <c r="AA39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W39" s="113">
+      <c r="AB39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X39" s="109">
+      <c r="AC39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="113">
+      <c r="AD39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="113">
+      <c r="AE39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="109">
+      <c r="AF39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="113">
+      <c r="AG39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="109">
+      <c r="AH39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="113">
+      <c r="AI39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="113">
+      <c r="AJ39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="109">
+      <c r="AK39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="113">
+      <c r="AL39" s="94">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AM39" s="90">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AN39" s="95">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AO39" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="109">
+      <c r="AP39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="113">
+      <c r="AQ39" s="94">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AR39" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="113">
+      <c r="AS39" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="115"/>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="175"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="175"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="127"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -5549,29 +5679,29 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="174"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="116"/>
+      <c r="Y41" s="116"/>
+      <c r="Z41" s="116"/>
+      <c r="AA41" s="116"/>
+      <c r="AB41" s="116"/>
+      <c r="AC41" s="116"/>
+      <c r="AD41" s="116"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="126"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
@@ -5583,30 +5713,32 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="172"/>
-      <c r="U42" s="172"/>
-      <c r="V42" s="172"/>
-      <c r="W42" s="172"/>
-      <c r="X42" s="172"/>
-      <c r="Y42" s="172"/>
-      <c r="Z42" s="172"/>
-      <c r="AA42" s="172"/>
-      <c r="AB42" s="172"/>
-      <c r="AC42" s="172"/>
-      <c r="AD42" s="172"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="125"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
       <c r="E43" s="12"/>
@@ -5615,32 +5747,37 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="172"/>
-      <c r="V43" s="172"/>
-      <c r="W43" s="172"/>
-      <c r="X43" s="172"/>
-      <c r="Y43" s="172"/>
-      <c r="Z43" s="172"/>
-      <c r="AA43" s="172"/>
-      <c r="AB43" s="172"/>
-      <c r="AC43" s="172"/>
-      <c r="AD43" s="172"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AO3:AS3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="K42:AD43"/>
+    <mergeCell ref="K41:AD41"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="U3:Y3"/>
@@ -5648,11 +5785,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AO3:AS3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="K42:AD43"/>
-    <mergeCell ref="K41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5672,37 +5804,37 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="123" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="121" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="102" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="180"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5717,320 +5849,320 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="105" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="122">
+      <c r="A4" s="103">
         <f>Zeitplanung!K$4</f>
         <v>43073</v>
       </c>
-      <c r="B4" s="120">
+      <c r="B4" s="101">
         <f>Zeitplanung!K39</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="122">
+      <c r="A5" s="103">
         <f>Zeitplanung!L$4</f>
         <v>43074</v>
       </c>
-      <c r="B5" s="120">
+      <c r="B5" s="101">
         <f>Zeitplanung!L39</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="122">
+      <c r="A6" s="103">
         <f>Zeitplanung!M$4</f>
         <v>43075</v>
       </c>
-      <c r="B6" s="120">
+      <c r="B6" s="101">
         <f>Zeitplanung!M39</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="122">
+      <c r="A7" s="103">
         <f>Zeitplanung!N$4</f>
         <v>43076</v>
       </c>
-      <c r="B7" s="120">
+      <c r="B7" s="101">
         <f>Zeitplanung!N39</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122">
+      <c r="A8" s="103">
         <f>Zeitplanung!O$4</f>
         <v>43077</v>
       </c>
-      <c r="B8" s="120">
+      <c r="B8" s="101">
         <f>Zeitplanung!O39</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="122">
+      <c r="A9" s="103">
         <f>Zeitplanung!P$4</f>
         <v>43080</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="101">
         <f>Zeitplanung!P39</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="122">
+      <c r="A10" s="103">
         <f>Zeitplanung!Q$4</f>
         <v>43081</v>
       </c>
-      <c r="B10" s="120">
+      <c r="B10" s="101">
         <f>Zeitplanung!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="122">
+      <c r="A11" s="103">
         <f>Zeitplanung!R$4</f>
         <v>43082</v>
       </c>
-      <c r="B11" s="120">
+      <c r="B11" s="101">
         <f>Zeitplanung!R39</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="122">
+      <c r="A12" s="103">
         <f>Zeitplanung!S$4</f>
         <v>43083</v>
       </c>
-      <c r="B12" s="120">
+      <c r="B12" s="101">
         <f>Zeitplanung!S39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="122">
+      <c r="A13" s="103">
         <f>Zeitplanung!T$4</f>
         <v>43084</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="101">
         <f>Zeitplanung!T39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="122">
+      <c r="A14" s="103">
         <f>Zeitplanung!U$4</f>
         <v>43087</v>
       </c>
-      <c r="B14" s="120">
+      <c r="B14" s="101">
         <f>Zeitplanung!U39</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="122">
+      <c r="A15" s="103">
         <f>Zeitplanung!V$4</f>
         <v>43088</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="101">
         <f>Zeitplanung!V39</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="122">
+      <c r="A16" s="103">
         <f>Zeitplanung!W$4</f>
         <v>43089</v>
       </c>
-      <c r="B16" s="120">
+      <c r="B16" s="101">
         <f>Zeitplanung!W39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="122">
+      <c r="A17" s="103">
         <f>Zeitplanung!X$4</f>
         <v>43090</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="101">
         <f>Zeitplanung!X39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="122">
+      <c r="A18" s="103">
         <f>Zeitplanung!Y$4</f>
         <v>43091</v>
       </c>
-      <c r="B18" s="120">
+      <c r="B18" s="101">
         <f>Zeitplanung!Y39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="122">
+      <c r="A19" s="103">
         <f>Zeitplanung!Z$4</f>
         <v>43094</v>
       </c>
-      <c r="B19" s="120">
+      <c r="B19" s="101">
         <f>Zeitplanung!Z39</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="122">
+      <c r="A20" s="103">
         <f>Zeitplanung!AA$4</f>
         <v>43095</v>
       </c>
-      <c r="B20" s="120">
+      <c r="B20" s="101">
         <f>Zeitplanung!AA39</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="122">
+      <c r="A21" s="103">
         <f>Zeitplanung!AB$4</f>
         <v>43096</v>
       </c>
-      <c r="B21" s="120">
+      <c r="B21" s="101">
         <f>Zeitplanung!AB39</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="122">
+      <c r="A22" s="103">
         <f>Zeitplanung!AC$4</f>
         <v>43097</v>
       </c>
-      <c r="B22" s="120">
+      <c r="B22" s="101">
         <f>Zeitplanung!AC39</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="122">
+      <c r="A23" s="103">
         <f>Zeitplanung!AD$4</f>
         <v>43098</v>
       </c>
-      <c r="B23" s="120">
+      <c r="B23" s="101">
         <f>Zeitplanung!AD39</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="122">
+      <c r="A24" s="103">
         <f>Zeitplanung!AE$4</f>
         <v>43101</v>
       </c>
-      <c r="B24" s="120">
+      <c r="B24" s="101">
         <f>Zeitplanung!AE39</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="122">
+      <c r="A25" s="103">
         <f>Zeitplanung!AF$4</f>
         <v>43102</v>
       </c>
-      <c r="B25" s="120">
+      <c r="B25" s="101">
         <f>Zeitplanung!AF39</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="122">
+      <c r="A26" s="103">
         <f>Zeitplanung!AG$4</f>
         <v>43103</v>
       </c>
-      <c r="B26" s="120">
+      <c r="B26" s="101">
         <f>Zeitplanung!AG39</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="122">
+      <c r="A27" s="103">
         <f>Zeitplanung!AH$4</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B27" s="101">
         <f>Zeitplanung!AH39</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="122">
+      <c r="A28" s="103">
         <f>Zeitplanung!AI$4</f>
         <v>43105</v>
       </c>
-      <c r="B28" s="120">
+      <c r="B28" s="101">
         <f>Zeitplanung!AI39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="122">
+      <c r="A29" s="103">
         <f>Zeitplanung!AJ$4</f>
         <v>43108</v>
       </c>
-      <c r="B29" s="120">
+      <c r="B29" s="101">
         <f>Zeitplanung!AJ39</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="122">
+      <c r="A30" s="103">
         <f>Zeitplanung!AK$4</f>
         <v>43109</v>
       </c>
-      <c r="B30" s="120">
+      <c r="B30" s="101">
         <f>Zeitplanung!AK39</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="122">
+      <c r="A31" s="103">
         <f>Zeitplanung!AL$4</f>
         <v>43110</v>
       </c>
-      <c r="B31" s="120">
+      <c r="B31" s="101">
         <f>Zeitplanung!AL39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="122">
+      <c r="A32" s="103">
         <f>Zeitplanung!AM$4</f>
         <v>43111</v>
       </c>
-      <c r="B32" s="120">
+      <c r="B32" s="101">
         <f>Zeitplanung!AM39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="122">
+      <c r="A33" s="103">
         <f>Zeitplanung!AN$4</f>
         <v>43112</v>
       </c>
-      <c r="B33" s="120">
+      <c r="B33" s="101">
         <f>Zeitplanung!AN39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="182"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6039,85 +6171,85 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="120">
+      <c r="B37" s="118"/>
+      <c r="C37" s="101">
         <f>Zeitplanung!C5</f>
         <v>16</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="101">
         <f>Zeitplanung!D5</f>
-        <v>8.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="183" t="s">
+      <c r="A38" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="184"/>
-      <c r="C38" s="120">
+      <c r="B38" s="123"/>
+      <c r="C38" s="101">
         <f>Zeitplanung!C11</f>
         <v>6</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="101">
         <f>Zeitplanung!D11</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="120">
+      <c r="B39" s="118"/>
+      <c r="C39" s="101">
         <f>Zeitplanung!C16</f>
         <v>63.400000000000006</v>
       </c>
-      <c r="D39" s="120">
+      <c r="D39" s="101">
         <f>Zeitplanung!D16</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="183" t="s">
+      <c r="A40" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="184"/>
-      <c r="C40" s="120">
+      <c r="B40" s="123"/>
+      <c r="C40" s="101">
         <f>Zeitplanung!C29</f>
         <v>6</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D40" s="101">
         <f>Zeitplanung!D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="120">
+      <c r="B41" s="118"/>
+      <c r="C41" s="101">
         <f>Zeitplanung!C33</f>
         <v>5</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="101">
         <f>Zeitplanung!D33</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="120">
+      <c r="B42" s="118"/>
+      <c r="C42" s="101">
         <f>Zeitplanung!C36</f>
         <v>0</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="101">
         <f>Zeitplanung!D36</f>
         <v>0</v>
       </c>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -300,12 +300,6 @@
     <t>Anforderung #03 (Pflanzen-Daten per SMS)</t>
   </si>
   <si>
-    <t>Anforderung #04 (Pflanzen-Daten im Blog-Format (Website))</t>
-  </si>
-  <si>
-    <t>Anforderung #05 (Pflanzen-Daten auf Website)</t>
-  </si>
-  <si>
     <t>Anforderung #06 (Website: Pflanze Über mich Seite)</t>
   </si>
   <si>
@@ -324,16 +318,22 @@
     <t>Anforderung #11 (Admin: Twitter-Account)</t>
   </si>
   <si>
-    <t>Anforderung #12 (Admin: Twitter-Account)</t>
-  </si>
-  <si>
     <t>Projektende</t>
   </si>
   <si>
     <t>Geplant</t>
   </si>
   <si>
-    <t>§1.5</t>
+    <t>Anforderung #04 (Pflalnze: Webseite)</t>
+  </si>
+  <si>
+    <t>Anforderung #05 (Pflanzen-Daten auf Website im Blog-Format)</t>
+  </si>
+  <si>
+    <t>Anforderung #12 (Admin: Tweets löschen)</t>
+  </si>
+  <si>
+    <t>Geschaft</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +547,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="81">
     <border>
@@ -1560,7 +1572,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1879,6 +1891,261 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1923,246 +2190,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2175,10 +2202,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCCC0DA"/>
-      <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2222,7 +2249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2384,13 +2410,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2399,13 +2425,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2444,13 +2470,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,11 +2496,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="309381064"/>
-        <c:axId val="309381848"/>
+        <c:axId val="321404104"/>
+        <c:axId val="321397048"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="309381064"/>
+        <c:axId val="321404104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,14 +2510,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309381848"/>
+        <c:crossAx val="321397048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="309381848"/>
+        <c:axId val="321397048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,14 +2528,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309381064"/>
+        <c:crossAx val="321404104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2593,7 +2618,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -2667,13 +2692,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.2</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2702,11 +2727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="309383808"/>
-        <c:axId val="309379888"/>
+        <c:axId val="321397832"/>
+        <c:axId val="321398224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309383808"/>
+        <c:axId val="321397832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309379888"/>
+        <c:crossAx val="321398224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309379888"/>
+        <c:axId val="321398224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,14 +2760,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309383808"/>
+        <c:crossAx val="321397832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3177,8 +3201,8 @@
   </sheetPr>
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3193,46 +3217,46 @@
     <col min="11" max="30" width="3.25" style="5" customWidth="1"/>
     <col min="31" max="35" width="3.25" style="4" customWidth="1"/>
     <col min="36" max="40" width="3.08203125" style="4" customWidth="1"/>
-    <col min="41" max="42" width="2.9140625" style="5" customWidth="1"/>
-    <col min="43" max="43" width="2.6640625" style="5" customWidth="1"/>
+    <col min="41" max="42" width="2.83203125" style="5" customWidth="1"/>
+    <col min="43" max="43" width="2.58203125" style="5" customWidth="1"/>
     <col min="44" max="44" width="4" style="5" customWidth="1"/>
     <col min="45" max="45" width="3.25" style="5" customWidth="1"/>
     <col min="46" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="194"/>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -3251,65 +3275,65 @@
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="196"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="19"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="110" t="s">
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="110" t="s">
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="110" t="s">
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="110" t="s">
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="110" t="s">
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="196"/>
+      <c r="AJ3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="110" t="s">
+      <c r="AK3" s="196"/>
+      <c r="AL3" s="196"/>
+      <c r="AM3" s="196"/>
+      <c r="AN3" s="198"/>
+      <c r="AO3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="113"/>
+      <c r="AP3" s="196"/>
+      <c r="AQ3" s="196"/>
+      <c r="AR3" s="196"/>
+      <c r="AS3" s="198"/>
     </row>
     <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
@@ -3488,11 +3512,11 @@
       </c>
       <c r="C5" s="75">
         <f>SUM(C6:C10)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" s="76">
         <f>SUM(D6:D10)</f>
-        <v>13.2</v>
+        <v>8.9</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="78"/>
@@ -3558,43 +3582,43 @@
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127">
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111">
         <v>2</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="136"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="137"/>
-      <c r="AP6" s="131"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="138"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="122"/>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
@@ -3618,43 +3642,43 @@
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
       <c r="J7" s="67"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="127">
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="180">
         <v>6</v>
       </c>
-      <c r="S7" s="143"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="147"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="143"/>
-      <c r="AN7" s="149"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="149"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="133"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="126"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="133"/>
     </row>
     <row r="8" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
@@ -3664,11 +3688,11 @@
         <v>37</v>
       </c>
       <c r="C8" s="37">
-        <v>2</v>
-      </c>
-      <c r="D8" s="33">
+        <v>8</v>
+      </c>
+      <c r="D8" s="33" t="str">
         <f>IF(SUM(K8:AS8)=0," ",SUM(K8:AS8))</f>
-        <v>4.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="36">
         <v>1</v>
@@ -3678,49 +3702,41 @@
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
       <c r="J8" s="67"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="196">
-        <v>1.5</v>
-      </c>
-      <c r="U8" s="141"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="196">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="203">
-        <v>1.5</v>
-      </c>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="142"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="150"/>
-      <c r="AS8" s="203" t="s">
-        <v>57</v>
-      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="131"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="134"/>
+      <c r="AN8" s="187"/>
+      <c r="AO8" s="132"/>
+      <c r="AP8" s="126"/>
+      <c r="AQ8" s="127"/>
+      <c r="AR8" s="134"/>
+      <c r="AS8" s="187"/>
     </row>
     <row r="9" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="53">
@@ -3734,7 +3750,7 @@
       </c>
       <c r="D9" s="33">
         <f>IF(SUM(K9:AS9)=0," ",SUM(K9:AS9))</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E9" s="36">
         <v>1</v>
@@ -3744,45 +3760,45 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="67"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="127">
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="180">
         <v>0.4</v>
       </c>
-      <c r="S9" s="195">
-        <v>0.3</v>
-      </c>
-      <c r="T9" s="144"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="141"/>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="143"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="141"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="151"/>
+      <c r="S9" s="179">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="128"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="131"/>
+      <c r="AJ9" s="125"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="134"/>
+      <c r="AN9" s="187"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="126"/>
+      <c r="AQ9" s="181"/>
+      <c r="AR9" s="134"/>
+      <c r="AS9" s="135"/>
     </row>
     <row r="10" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
@@ -3806,41 +3822,41 @@
       <c r="H10" s="39"/>
       <c r="I10" s="35"/>
       <c r="J10" s="67"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="156"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="165"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="164"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="158"/>
-      <c r="AR10" s="165"/>
-      <c r="AS10" s="151"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="147"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="142"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="148"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="142"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="135"/>
     </row>
     <row r="11" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="72">
@@ -3863,41 +3879,41 @@
       <c r="H11" s="79"/>
       <c r="I11" s="80"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="171"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="172"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="168"/>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="169"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="171"/>
-      <c r="AP11" s="168"/>
-      <c r="AQ11" s="168"/>
-      <c r="AR11" s="169"/>
-      <c r="AS11" s="173"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="155"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="152"/>
+      <c r="AM11" s="153"/>
+      <c r="AN11" s="157"/>
+      <c r="AO11" s="155"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="157"/>
     </row>
     <row r="12" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
@@ -3921,45 +3937,45 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
       <c r="J12" s="67"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="139">
+      <c r="K12" s="158"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="123">
         <v>5</v>
       </c>
-      <c r="N12" s="128"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="127">
+      <c r="N12" s="112"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="180">
         <v>0.5</v>
       </c>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="137"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="132"/>
-      <c r="AM12" s="175"/>
-      <c r="AN12" s="176"/>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="132"/>
-      <c r="AR12" s="175"/>
-      <c r="AS12" s="176"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="160"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="160"/>
     </row>
     <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
@@ -3974,41 +3990,41 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
       <c r="J13" s="67"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="132"/>
-      <c r="AM13" s="175"/>
-      <c r="AN13" s="176"/>
-      <c r="AO13" s="137"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="132"/>
-      <c r="AR13" s="175"/>
-      <c r="AS13" s="176"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="160"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="116"/>
+      <c r="AR13" s="159"/>
+      <c r="AS13" s="160"/>
     </row>
     <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
@@ -4023,41 +4039,41 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
       <c r="J14" s="67"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="132"/>
-      <c r="AM14" s="175"/>
-      <c r="AN14" s="176"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="132"/>
-      <c r="AR14" s="175"/>
-      <c r="AS14" s="176"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="121"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="159"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="116"/>
+      <c r="AR14" s="159"/>
+      <c r="AS14" s="160"/>
     </row>
     <row r="15" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
@@ -4075,41 +4091,41 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="67"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="135"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="132"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="176"/>
-      <c r="AO15" s="137"/>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="132"/>
-      <c r="AR15" s="175"/>
-      <c r="AS15" s="176"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="115"/>
+      <c r="AL15" s="116"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="160"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="116"/>
+      <c r="AR15" s="159"/>
+      <c r="AS15" s="160"/>
     </row>
     <row r="16" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="72">
@@ -4124,7 +4140,7 @@
       </c>
       <c r="D16" s="76">
         <f>SUM(D17:D23)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -4132,41 +4148,41 @@
       <c r="H16" s="79"/>
       <c r="I16" s="80"/>
       <c r="J16" s="81"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="168"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="167"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="169"/>
-      <c r="X16" s="167"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="171"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="171"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="172"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="168"/>
-      <c r="AM16" s="169"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="171"/>
-      <c r="AP16" s="168"/>
-      <c r="AQ16" s="168"/>
-      <c r="AR16" s="169"/>
-      <c r="AS16" s="173"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="153"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="155"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="157"/>
+      <c r="AO16" s="155"/>
+      <c r="AP16" s="152"/>
+      <c r="AQ16" s="152"/>
+      <c r="AR16" s="153"/>
+      <c r="AS16" s="157"/>
     </row>
     <row r="17" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
@@ -4178,9 +4194,9 @@
       <c r="C17" s="32">
         <v>22</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="45" t="str">
         <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v>21.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4192,47 +4208,41 @@
         <v>43089</v>
       </c>
       <c r="J17" s="67"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="197">
-        <v>7</v>
-      </c>
-      <c r="T17" s="198">
-        <v>6.5</v>
-      </c>
-      <c r="U17" s="137"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="199">
-        <v>8</v>
-      </c>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="178"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="136"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="175"/>
-      <c r="AN17" s="176"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="131"/>
-      <c r="AQ17" s="132"/>
-      <c r="AR17" s="175"/>
-      <c r="AS17" s="176"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="159"/>
+      <c r="AN17" s="160"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="116"/>
+      <c r="AR17" s="159"/>
+      <c r="AS17" s="160"/>
     </row>
     <row r="18" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
@@ -4244,9 +4254,9 @@
       <c r="C18" s="32">
         <v>4.5</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
@@ -4254,47 +4264,43 @@
       <c r="F18" s="32"/>
       <c r="G18" s="46"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="35">
-        <v>43090</v>
-      </c>
+      <c r="I18" s="35"/>
       <c r="J18" s="67"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="197">
-        <v>4.5</v>
-      </c>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="178"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="136"/>
-      <c r="AJ18" s="137"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="132"/>
-      <c r="AM18" s="175"/>
-      <c r="AN18" s="176"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="131"/>
-      <c r="AQ18" s="132"/>
-      <c r="AR18" s="175"/>
-      <c r="AS18" s="176"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="159"/>
+      <c r="AN18" s="160"/>
+      <c r="AO18" s="121"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="159"/>
+      <c r="AS18" s="160"/>
     </row>
     <row r="19" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
@@ -4306,9 +4312,9 @@
       <c r="C19" s="32">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
@@ -4320,59 +4326,55 @@
         <v>43091</v>
       </c>
       <c r="J19" s="67"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="197">
-        <v>3.5</v>
-      </c>
-      <c r="Y19" s="198">
-        <v>6.5</v>
-      </c>
-      <c r="Z19" s="178"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="178"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="136"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="131"/>
-      <c r="AL19" s="132"/>
-      <c r="AM19" s="175"/>
-      <c r="AN19" s="176"/>
-      <c r="AO19" s="137"/>
-      <c r="AP19" s="131"/>
-      <c r="AQ19" s="132"/>
-      <c r="AR19" s="175"/>
-      <c r="AS19" s="176"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="115"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="159"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="121"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="116"/>
+      <c r="AR19" s="159"/>
+      <c r="AS19" s="160"/>
     </row>
     <row r="20" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
         <v>34</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C20" s="32">
         <v>1.5</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -4380,61 +4382,57 @@
       <c r="F20" s="32"/>
       <c r="G20" s="46"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="35">
-        <v>42745</v>
-      </c>
+      <c r="I20" s="35"/>
       <c r="J20" s="67"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="136"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="136"/>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="197">
-        <v>1.5</v>
-      </c>
-      <c r="AM20" s="175"/>
-      <c r="AN20" s="176"/>
-      <c r="AO20" s="137"/>
-      <c r="AP20" s="131"/>
-      <c r="AQ20" s="132"/>
-      <c r="AR20" s="175"/>
-      <c r="AS20" s="176"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="183"/>
+      <c r="AM20" s="159"/>
+      <c r="AN20" s="160"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="116"/>
+      <c r="AR20" s="159"/>
+      <c r="AS20" s="160"/>
     </row>
     <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
         <v>35</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C21" s="32">
         <v>6.5</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="31">
         <v>2</v>
@@ -4442,61 +4440,57 @@
       <c r="F21" s="32"/>
       <c r="G21" s="46"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="35">
-        <v>42745</v>
-      </c>
+      <c r="I21" s="35"/>
       <c r="J21" s="67"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="178"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="178"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="197">
-        <v>6.5</v>
-      </c>
-      <c r="AM21" s="175"/>
-      <c r="AN21" s="176"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="131"/>
-      <c r="AQ21" s="132"/>
-      <c r="AR21" s="175"/>
-      <c r="AS21" s="176"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="183"/>
+      <c r="AM21" s="159"/>
+      <c r="AN21" s="160"/>
+      <c r="AO21" s="121"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="116"/>
+      <c r="AR21" s="159"/>
+      <c r="AS21" s="160"/>
     </row>
     <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
         <v>36</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="31">
         <v>2</v>
@@ -4504,54 +4498,50 @@
       <c r="F22" s="32"/>
       <c r="G22" s="46"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="35">
-        <v>42746</v>
-      </c>
+      <c r="I22" s="35"/>
       <c r="J22" s="67"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="178"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="178"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="136"/>
-      <c r="AJ22" s="137"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="132"/>
-      <c r="AM22" s="200">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="176"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="131"/>
-      <c r="AQ22" s="132"/>
-      <c r="AR22" s="175"/>
-      <c r="AS22" s="176"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="112"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="115"/>
+      <c r="AL22" s="116"/>
+      <c r="AM22" s="185"/>
+      <c r="AN22" s="160"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="115"/>
+      <c r="AQ22" s="116"/>
+      <c r="AR22" s="159"/>
+      <c r="AS22" s="160"/>
     </row>
     <row r="23" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
         <v>37</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="37">
         <v>5</v>
@@ -4566,61 +4556,57 @@
       <c r="F23" s="32"/>
       <c r="G23" s="46"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="35">
-        <v>42746</v>
-      </c>
+      <c r="I23" s="35"/>
       <c r="J23" s="67"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="143"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="146"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="146"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="146"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="146"/>
-      <c r="AI23" s="147"/>
-      <c r="AJ23" s="181"/>
-      <c r="AK23" s="142"/>
-      <c r="AL23" s="143"/>
-      <c r="AM23" s="201">
-        <v>5</v>
-      </c>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="181"/>
-      <c r="AP23" s="142"/>
-      <c r="AQ23" s="143"/>
-      <c r="AR23" s="150"/>
-      <c r="AS23" s="151"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="131"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="126"/>
+      <c r="AL23" s="127"/>
+      <c r="AM23" s="186"/>
+      <c r="AN23" s="135"/>
+      <c r="AO23" s="165"/>
+      <c r="AP23" s="126"/>
+      <c r="AQ23" s="127"/>
+      <c r="AR23" s="134"/>
+      <c r="AS23" s="135"/>
     </row>
     <row r="24" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
         <v>38</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="32">
         <v>6.7</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="45" t="str">
         <f>IF(SUM(K24:AS24)=0," ",SUM(K24:AS24))</f>
-        <v>7</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="31">
         <v>2</v>
@@ -4632,59 +4618,55 @@
         <v>42747</v>
       </c>
       <c r="J24" s="67"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="178"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="136"/>
-      <c r="AJ24" s="137"/>
-      <c r="AK24" s="131"/>
-      <c r="AL24" s="132"/>
-      <c r="AM24" s="200">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="202">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="131"/>
-      <c r="AQ24" s="132"/>
-      <c r="AR24" s="175"/>
-      <c r="AS24" s="176"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="119"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="115"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="184"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="159"/>
+      <c r="AS24" s="160"/>
     </row>
     <row r="25" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
         <v>39</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="32">
         <v>3.5</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="45" t="str">
         <f>IF(SUM(K25:AS25)=0," ",SUM(K25:AS25))</f>
-        <v>3.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="31">
         <v>3</v>
@@ -4692,63 +4674,57 @@
       <c r="F25" s="32"/>
       <c r="G25" s="46"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="35">
-        <v>42752</v>
-      </c>
+      <c r="I25" s="35"/>
       <c r="J25" s="67"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="178"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="178"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="136"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="132"/>
-      <c r="AM25" s="175"/>
-      <c r="AN25" s="202">
-        <v>1.5</v>
-      </c>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="197">
-        <v>2</v>
-      </c>
-      <c r="AR25" s="175"/>
-      <c r="AS25" s="176"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="119"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="115"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="184"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="183"/>
+      <c r="AR25" s="159"/>
+      <c r="AS25" s="160"/>
     </row>
     <row r="26" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
         <v>40</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="32">
         <v>2</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="45" t="str">
         <f>IF(SUM(K26:AS26)=0," ",SUM(K26:AS26))</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="31">
         <v>3</v>
@@ -4756,54 +4732,50 @@
       <c r="F26" s="32"/>
       <c r="G26" s="46"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="35">
-        <v>42752</v>
-      </c>
+      <c r="I26" s="35"/>
       <c r="J26" s="67"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="178"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="136"/>
-      <c r="AE26" s="178"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="136"/>
-      <c r="AJ26" s="137"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="132"/>
-      <c r="AM26" s="175"/>
-      <c r="AN26" s="176"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="197">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="175"/>
-      <c r="AS26" s="176"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="119"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="115"/>
+      <c r="AL26" s="116"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="183"/>
+      <c r="AR26" s="159"/>
+      <c r="AS26" s="160"/>
     </row>
     <row r="27" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
         <v>41</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="37">
         <v>0.5</v>
@@ -4818,54 +4790,50 @@
       <c r="F27" s="32"/>
       <c r="G27" s="46"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="35">
-        <v>42752</v>
-      </c>
+      <c r="I27" s="35"/>
       <c r="J27" s="67"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="142"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="147"/>
-      <c r="AJ27" s="181"/>
-      <c r="AK27" s="142"/>
-      <c r="AL27" s="143"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="181"/>
-      <c r="AP27" s="142"/>
-      <c r="AQ27" s="195">
-        <v>0.5</v>
-      </c>
-      <c r="AR27" s="150"/>
-      <c r="AS27" s="151"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="165"/>
+      <c r="AK27" s="126"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="134"/>
+      <c r="AN27" s="135"/>
+      <c r="AO27" s="165"/>
+      <c r="AP27" s="126"/>
+      <c r="AQ27" s="181"/>
+      <c r="AR27" s="134"/>
+      <c r="AS27" s="135"/>
     </row>
     <row r="28" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
         <v>42</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="37">
         <v>0.5</v>
@@ -4884,43 +4852,41 @@
         <v>42752</v>
       </c>
       <c r="J28" s="67"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="142"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="146"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="146"/>
-      <c r="AI28" s="147"/>
-      <c r="AJ28" s="181"/>
-      <c r="AK28" s="142"/>
-      <c r="AL28" s="143"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="181"/>
-      <c r="AP28" s="142"/>
-      <c r="AQ28" s="195">
-        <v>0.5</v>
-      </c>
-      <c r="AR28" s="150"/>
-      <c r="AS28" s="151"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="134"/>
+      <c r="AN28" s="135"/>
+      <c r="AO28" s="165"/>
+      <c r="AP28" s="126"/>
+      <c r="AQ28" s="181"/>
+      <c r="AR28" s="134"/>
+      <c r="AS28" s="135"/>
     </row>
     <row r="29" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="72">
@@ -4943,41 +4909,41 @@
       <c r="H29" s="79"/>
       <c r="I29" s="80"/>
       <c r="J29" s="81"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="169"/>
-      <c r="X29" s="167"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="171"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="171"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="167"/>
-      <c r="AI29" s="172"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="168"/>
-      <c r="AL29" s="168"/>
-      <c r="AM29" s="169"/>
-      <c r="AN29" s="173"/>
-      <c r="AO29" s="171"/>
-      <c r="AP29" s="168"/>
-      <c r="AQ29" s="168"/>
-      <c r="AR29" s="169"/>
-      <c r="AS29" s="173"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="152"/>
+      <c r="AG29" s="153"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="156"/>
+      <c r="AJ29" s="155"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="152"/>
+      <c r="AM29" s="153"/>
+      <c r="AN29" s="157"/>
+      <c r="AO29" s="155"/>
+      <c r="AP29" s="152"/>
+      <c r="AQ29" s="152"/>
+      <c r="AR29" s="153"/>
+      <c r="AS29" s="157"/>
     </row>
     <row r="30" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
@@ -5001,41 +4967,41 @@
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="J30" s="68"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="135"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="131"/>
-      <c r="AL30" s="132"/>
-      <c r="AM30" s="132"/>
-      <c r="AN30" s="182"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="131"/>
-      <c r="AQ30" s="132"/>
-      <c r="AR30" s="132"/>
-      <c r="AS30" s="182"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="119"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="119"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="119"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="119"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="115"/>
+      <c r="AL30" s="116"/>
+      <c r="AM30" s="116"/>
+      <c r="AN30" s="166"/>
+      <c r="AO30" s="121"/>
+      <c r="AP30" s="115"/>
+      <c r="AQ30" s="116"/>
+      <c r="AR30" s="116"/>
+      <c r="AS30" s="166"/>
     </row>
     <row r="31" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
@@ -5059,41 +5025,41 @@
       <c r="H31" s="34"/>
       <c r="I31" s="35"/>
       <c r="J31" s="68"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="178"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="135"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="137"/>
-      <c r="AK31" s="142"/>
-      <c r="AL31" s="143"/>
-      <c r="AM31" s="143"/>
-      <c r="AN31" s="183"/>
-      <c r="AO31" s="137"/>
-      <c r="AP31" s="142"/>
-      <c r="AQ31" s="143"/>
-      <c r="AR31" s="143"/>
-      <c r="AS31" s="183"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="119"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="127"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="167"/>
+      <c r="AO31" s="121"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="127"/>
+      <c r="AR31" s="127"/>
+      <c r="AS31" s="167"/>
     </row>
     <row r="32" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
@@ -5117,41 +5083,41 @@
       <c r="H32" s="39"/>
       <c r="I32" s="35"/>
       <c r="J32" s="68"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="184"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="189"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="189"/>
-      <c r="AI32" s="190"/>
-      <c r="AJ32" s="184"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="132"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="149"/>
-      <c r="AO32" s="184"/>
-      <c r="AP32" s="131"/>
-      <c r="AQ32" s="132"/>
-      <c r="AR32" s="132"/>
-      <c r="AS32" s="149"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="170"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="172"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="174"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="174"/>
+      <c r="AJ32" s="168"/>
+      <c r="AK32" s="115"/>
+      <c r="AL32" s="116"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="133"/>
+      <c r="AO32" s="168"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="116"/>
+      <c r="AR32" s="116"/>
+      <c r="AS32" s="133"/>
     </row>
     <row r="33" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="72">
@@ -5174,41 +5140,41 @@
       <c r="H33" s="79"/>
       <c r="I33" s="80"/>
       <c r="J33" s="81"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="167"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="169"/>
-      <c r="X33" s="167"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="171"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="169"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="171"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="172"/>
-      <c r="AJ33" s="171"/>
-      <c r="AK33" s="168"/>
-      <c r="AL33" s="168"/>
-      <c r="AM33" s="169"/>
-      <c r="AN33" s="173"/>
-      <c r="AO33" s="171"/>
-      <c r="AP33" s="168"/>
-      <c r="AQ33" s="168"/>
-      <c r="AR33" s="169"/>
-      <c r="AS33" s="173"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="153"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="156"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="155"/>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="152"/>
+      <c r="AR33" s="153"/>
+      <c r="AS33" s="157"/>
     </row>
     <row r="34" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
@@ -5229,47 +5195,41 @@
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="68"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="129"/>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="199">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S34" s="197">
-        <v>0.7</v>
-      </c>
-      <c r="T34" s="133"/>
-      <c r="U34" s="137"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="133"/>
-      <c r="Z34" s="178"/>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="135"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="178"/>
-      <c r="AF34" s="135"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="135"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="137"/>
-      <c r="AK34" s="131"/>
-      <c r="AL34" s="132"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="182"/>
-      <c r="AO34" s="137"/>
-      <c r="AP34" s="131"/>
-      <c r="AQ34" s="197">
-        <v>3</v>
-      </c>
-      <c r="AR34" s="132"/>
-      <c r="AS34" s="182"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="190"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="119"/>
+      <c r="AB34" s="112"/>
+      <c r="AC34" s="119"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="119"/>
+      <c r="AG34" s="112"/>
+      <c r="AH34" s="119"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="115"/>
+      <c r="AL34" s="116"/>
+      <c r="AM34" s="116"/>
+      <c r="AN34" s="166"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="115"/>
+      <c r="AQ34" s="183"/>
+      <c r="AR34" s="116"/>
+      <c r="AS34" s="166"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
@@ -5287,41 +5247,41 @@
       <c r="H35" s="44"/>
       <c r="I35" s="35"/>
       <c r="J35" s="67"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="185"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="186"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="185"/>
-      <c r="W35" s="157"/>
-      <c r="X35" s="186"/>
-      <c r="Y35" s="187"/>
-      <c r="Z35" s="188"/>
-      <c r="AA35" s="189"/>
-      <c r="AB35" s="162"/>
-      <c r="AC35" s="189"/>
-      <c r="AD35" s="190"/>
-      <c r="AE35" s="188"/>
-      <c r="AF35" s="189"/>
-      <c r="AG35" s="162"/>
-      <c r="AH35" s="189"/>
-      <c r="AI35" s="190"/>
-      <c r="AJ35" s="193"/>
-      <c r="AK35" s="185"/>
-      <c r="AL35" s="186"/>
-      <c r="AM35" s="186"/>
-      <c r="AN35" s="149"/>
-      <c r="AO35" s="193"/>
-      <c r="AP35" s="185"/>
-      <c r="AQ35" s="186"/>
-      <c r="AR35" s="186"/>
-      <c r="AS35" s="149"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="168"/>
+      <c r="Q35" s="169"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="170"/>
+      <c r="T35" s="171"/>
+      <c r="U35" s="168"/>
+      <c r="V35" s="169"/>
+      <c r="W35" s="141"/>
+      <c r="X35" s="170"/>
+      <c r="Y35" s="171"/>
+      <c r="Z35" s="172"/>
+      <c r="AA35" s="173"/>
+      <c r="AB35" s="146"/>
+      <c r="AC35" s="173"/>
+      <c r="AD35" s="174"/>
+      <c r="AE35" s="172"/>
+      <c r="AF35" s="173"/>
+      <c r="AG35" s="146"/>
+      <c r="AH35" s="173"/>
+      <c r="AI35" s="174"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="169"/>
+      <c r="AL35" s="170"/>
+      <c r="AM35" s="170"/>
+      <c r="AN35" s="133"/>
+      <c r="AO35" s="177"/>
+      <c r="AP35" s="169"/>
+      <c r="AQ35" s="170"/>
+      <c r="AR35" s="170"/>
+      <c r="AS35" s="133"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="72">
@@ -5344,41 +5304,41 @@
       <c r="H36" s="79"/>
       <c r="I36" s="80"/>
       <c r="J36" s="81"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="169"/>
-      <c r="S36" s="167"/>
-      <c r="T36" s="172"/>
-      <c r="U36" s="171"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="169"/>
-      <c r="X36" s="167"/>
-      <c r="Y36" s="172"/>
-      <c r="Z36" s="171"/>
-      <c r="AA36" s="168"/>
-      <c r="AB36" s="169"/>
-      <c r="AC36" s="167"/>
-      <c r="AD36" s="172"/>
-      <c r="AE36" s="171"/>
-      <c r="AF36" s="168"/>
-      <c r="AG36" s="169"/>
-      <c r="AH36" s="167"/>
-      <c r="AI36" s="172"/>
-      <c r="AJ36" s="171"/>
-      <c r="AK36" s="168"/>
-      <c r="AL36" s="168"/>
-      <c r="AM36" s="169"/>
-      <c r="AN36" s="173"/>
-      <c r="AO36" s="171"/>
-      <c r="AP36" s="168"/>
-      <c r="AQ36" s="168"/>
-      <c r="AR36" s="169"/>
-      <c r="AS36" s="173"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="151"/>
+      <c r="Y36" s="156"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="153"/>
+      <c r="AC36" s="151"/>
+      <c r="AD36" s="156"/>
+      <c r="AE36" s="155"/>
+      <c r="AF36" s="152"/>
+      <c r="AG36" s="153"/>
+      <c r="AH36" s="151"/>
+      <c r="AI36" s="156"/>
+      <c r="AJ36" s="155"/>
+      <c r="AK36" s="152"/>
+      <c r="AL36" s="152"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="157"/>
+      <c r="AO36" s="155"/>
+      <c r="AP36" s="152"/>
+      <c r="AQ36" s="152"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="157"/>
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
@@ -5400,48 +5360,48 @@
       <c r="H37" s="34"/>
       <c r="I37" s="35"/>
       <c r="J37" s="70"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="133"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="131"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="178"/>
-      <c r="AA37" s="135"/>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="135"/>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="178"/>
-      <c r="AF37" s="135"/>
-      <c r="AG37" s="128"/>
-      <c r="AH37" s="135"/>
-      <c r="AI37" s="136"/>
-      <c r="AJ37" s="130"/>
-      <c r="AK37" s="131"/>
-      <c r="AL37" s="132"/>
-      <c r="AM37" s="132"/>
-      <c r="AN37" s="183"/>
-      <c r="AO37" s="130"/>
-      <c r="AP37" s="131"/>
-      <c r="AQ37" s="132"/>
-      <c r="AR37" s="132"/>
-      <c r="AS37" s="183"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="162"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="120"/>
+      <c r="AE37" s="162"/>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="119"/>
+      <c r="AI37" s="120"/>
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="115"/>
+      <c r="AL37" s="116"/>
+      <c r="AM37" s="116"/>
+      <c r="AN37" s="167"/>
+      <c r="AO37" s="114"/>
+      <c r="AP37" s="115"/>
+      <c r="AQ37" s="116"/>
+      <c r="AR37" s="116"/>
+      <c r="AS37" s="167"/>
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="53">
         <v>72</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="33" t="str">
@@ -5458,41 +5418,41 @@
         <v>43118</v>
       </c>
       <c r="J38" s="69"/>
-      <c r="K38" s="179"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="142"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="181"/>
-      <c r="V38" s="142"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="194"/>
-      <c r="AA38" s="146"/>
-      <c r="AB38" s="128"/>
-      <c r="AC38" s="146"/>
-      <c r="AD38" s="147"/>
-      <c r="AE38" s="194"/>
-      <c r="AF38" s="146"/>
-      <c r="AG38" s="128"/>
-      <c r="AH38" s="146"/>
-      <c r="AI38" s="147"/>
-      <c r="AJ38" s="141"/>
-      <c r="AK38" s="142"/>
-      <c r="AL38" s="143"/>
-      <c r="AM38" s="143"/>
-      <c r="AN38" s="183"/>
-      <c r="AO38" s="141"/>
-      <c r="AP38" s="142"/>
-      <c r="AQ38" s="143"/>
-      <c r="AR38" s="143"/>
-      <c r="AS38" s="183"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="165"/>
+      <c r="V38" s="126"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="178"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="112"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="131"/>
+      <c r="AE38" s="178"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="112"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="131"/>
+      <c r="AJ38" s="125"/>
+      <c r="AK38" s="126"/>
+      <c r="AL38" s="127"/>
+      <c r="AM38" s="127"/>
+      <c r="AN38" s="167"/>
+      <c r="AO38" s="125"/>
+      <c r="AP38" s="126"/>
+      <c r="AQ38" s="127"/>
+      <c r="AR38" s="127"/>
+      <c r="AS38" s="167"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="71"/>
@@ -5501,11 +5461,11 @@
       </c>
       <c r="C39" s="90">
         <f>SUM(C5+C11+C16+C29+C33+C36)</f>
-        <v>96.4</v>
+        <v>102.4</v>
       </c>
       <c r="D39" s="90">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>63.7</v>
+        <v>14.4</v>
       </c>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -5543,15 +5503,15 @@
       </c>
       <c r="R39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="S39" s="90">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="T39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U39" s="94">
         <f t="shared" si="2"/>
@@ -5563,15 +5523,15 @@
       </c>
       <c r="W39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X39" s="90">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="94">
         <f t="shared" si="2"/>
@@ -5623,15 +5583,15 @@
       </c>
       <c r="AL39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="90">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="95">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="94">
         <f t="shared" si="2"/>
@@ -5643,7 +5603,7 @@
       </c>
       <c r="AQ39" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="90">
         <f t="shared" si="2"/>
@@ -5656,15 +5616,15 @@
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="193"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="107"/>
@@ -5679,26 +5639,26 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="116"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="201"/>
+      <c r="N41" s="201"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="201"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201"/>
+      <c r="X41" s="201"/>
+      <c r="Y41" s="201"/>
+      <c r="Z41" s="201"/>
+      <c r="AA41" s="201"/>
+      <c r="AB41" s="201"/>
+      <c r="AC41" s="201"/>
+      <c r="AD41" s="201"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="106"/>
@@ -5713,31 +5673,31 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="199"/>
+      <c r="O42" s="199"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="199"/>
+      <c r="R42" s="199"/>
+      <c r="S42" s="199"/>
+      <c r="T42" s="199"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="199"/>
+      <c r="W42" s="199"/>
+      <c r="X42" s="199"/>
+      <c r="Y42" s="199"/>
+      <c r="Z42" s="199"/>
+      <c r="AA42" s="199"/>
+      <c r="AB42" s="199"/>
+      <c r="AC42" s="199"/>
+      <c r="AD42" s="199"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="124"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
@@ -5747,28 +5707,32 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="199"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="199"/>
+      <c r="R43" s="199"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="199"/>
+      <c r="U43" s="199"/>
+      <c r="V43" s="199"/>
+      <c r="W43" s="199"/>
+      <c r="X43" s="199"/>
+      <c r="Y43" s="199"/>
+      <c r="Z43" s="199"/>
+      <c r="AA43" s="199"/>
+      <c r="AB43" s="199"/>
+      <c r="AC43" s="199"/>
+      <c r="AD43" s="199"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="182"/>
+      <c r="B44" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
   </sheetData>
@@ -5804,8 +5768,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5817,20 +5781,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="100"/>
@@ -5933,7 +5897,7 @@
       </c>
       <c r="B11" s="101">
         <f>Zeitplanung!R39</f>
-        <v>8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5943,7 +5907,7 @@
       </c>
       <c r="B12" s="101">
         <f>Zeitplanung!S39</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5953,7 +5917,7 @@
       </c>
       <c r="B13" s="101">
         <f>Zeitplanung!T39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5983,7 +5947,7 @@
       </c>
       <c r="B16" s="101">
         <f>Zeitplanung!W39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5993,7 +5957,7 @@
       </c>
       <c r="B17" s="101">
         <f>Zeitplanung!X39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6003,7 +5967,7 @@
       </c>
       <c r="B18" s="101">
         <f>Zeitplanung!Y39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6133,7 +6097,7 @@
       </c>
       <c r="B31" s="101">
         <f>Zeitplanung!AL39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6143,7 +6107,7 @@
       </c>
       <c r="B32" s="101">
         <f>Zeitplanung!AM39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6153,16 +6117,16 @@
       </c>
       <c r="B33" s="101">
         <f>Zeitplanung!AN39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="206"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6171,24 +6135,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="118"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="101">
         <f>Zeitplanung!C5</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D37" s="101">
         <f>Zeitplanung!D5</f>
-        <v>13.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="123"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="101">
         <f>Zeitplanung!C11</f>
         <v>6</v>
@@ -6199,24 +6163,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="118"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="101">
         <f>Zeitplanung!C16</f>
         <v>63.400000000000006</v>
       </c>
       <c r="D39" s="101">
         <f>Zeitplanung!D16</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="123"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="101">
         <f>Zeitplanung!C29</f>
         <v>6</v>
@@ -6227,10 +6191,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="118"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="101">
         <f>Zeitplanung!C33</f>
         <v>5</v>
@@ -6241,10 +6205,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="118"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="101">
         <f>Zeitplanung!C36</f>
         <v>0</v>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -1572,7 +1572,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2131,9 +2131,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2145,6 +2142,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2152,26 +2167,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2190,6 +2187,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2202,8 +2208,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCCC0DA"/>
     </mruColors>
@@ -2413,10 +2419,10 @@
                   <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2496,11 +2502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321404104"/>
-        <c:axId val="321397048"/>
+        <c:axId val="313915200"/>
+        <c:axId val="313919120"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="321404104"/>
+        <c:axId val="313915200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,14 +2516,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321397048"/>
+        <c:crossAx val="313919120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="321397048"/>
+        <c:axId val="313919120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321404104"/>
+        <c:crossAx val="313915200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2692,13 +2698,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.9</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2727,11 +2733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321397832"/>
-        <c:axId val="321398224"/>
+        <c:axId val="313920688"/>
+        <c:axId val="313915592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321397832"/>
+        <c:axId val="313920688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321398224"/>
+        <c:crossAx val="313915592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321398224"/>
+        <c:axId val="313915592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321397832"/>
+        <c:crossAx val="313920688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3201,8 +3207,8 @@
   </sheetPr>
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3225,38 +3231,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -3275,65 +3281,65 @@
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="196"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="19"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="196" t="s">
+      <c r="K3" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="195" t="s">
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="195" t="s">
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="195" t="s">
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="195" t="s">
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="196"/>
-      <c r="AJ3" s="195" t="s">
+      <c r="AF3" s="193"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="193"/>
+      <c r="AJ3" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="196"/>
-      <c r="AL3" s="196"/>
-      <c r="AM3" s="196"/>
-      <c r="AN3" s="198"/>
-      <c r="AO3" s="195" t="s">
+      <c r="AK3" s="193"/>
+      <c r="AL3" s="193"/>
+      <c r="AM3" s="193"/>
+      <c r="AN3" s="194"/>
+      <c r="AO3" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="196"/>
-      <c r="AQ3" s="196"/>
-      <c r="AR3" s="196"/>
-      <c r="AS3" s="198"/>
+      <c r="AP3" s="193"/>
+      <c r="AQ3" s="193"/>
+      <c r="AR3" s="193"/>
+      <c r="AS3" s="194"/>
     </row>
     <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
@@ -3516,7 +3522,7 @@
       </c>
       <c r="D5" s="76">
         <f>SUM(D6:D10)</f>
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="78"/>
@@ -3690,9 +3696,9 @@
       <c r="C8" s="37">
         <v>8</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="33">
         <f>IF(SUM(K8:AS8)=0," ",SUM(K8:AS8))</f>
-        <v xml:space="preserve"> </v>
+        <v>0.7</v>
       </c>
       <c r="E8" s="36">
         <v>1</v>
@@ -3711,12 +3717,14 @@
       <c r="Q8" s="126"/>
       <c r="R8" s="111"/>
       <c r="S8" s="127"/>
-      <c r="T8" s="188"/>
+      <c r="T8" s="209">
+        <v>0.7</v>
+      </c>
       <c r="U8" s="125"/>
       <c r="V8" s="126"/>
       <c r="W8" s="111"/>
       <c r="X8" s="127"/>
-      <c r="Y8" s="192"/>
+      <c r="Y8" s="191"/>
       <c r="Z8" s="129"/>
       <c r="AA8" s="130"/>
       <c r="AB8" s="112"/>
@@ -3776,9 +3784,9 @@
       <c r="T9" s="128"/>
       <c r="U9" s="125"/>
       <c r="V9" s="126"/>
-      <c r="W9" s="191"/>
+      <c r="W9" s="190"/>
       <c r="X9" s="127"/>
-      <c r="Y9" s="192"/>
+      <c r="Y9" s="191"/>
       <c r="Z9" s="129"/>
       <c r="AA9" s="130"/>
       <c r="AB9" s="112"/>
@@ -4140,7 +4148,7 @@
       </c>
       <c r="D16" s="76">
         <f>SUM(D17:D23)</f>
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -4194,9 +4202,9 @@
       <c r="C17" s="32">
         <v>22</v>
       </c>
-      <c r="D17" s="45" t="str">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v xml:space="preserve"> </v>
+        <v>15.3</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4216,11 +4224,15 @@
       <c r="P17" s="121"/>
       <c r="Q17" s="115"/>
       <c r="R17" s="111"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="189"/>
+      <c r="S17" s="208">
+        <v>8.5</v>
+      </c>
+      <c r="T17" s="210">
+        <v>6.8</v>
+      </c>
       <c r="U17" s="121"/>
       <c r="V17" s="115"/>
-      <c r="W17" s="190"/>
+      <c r="W17" s="189"/>
       <c r="X17" s="116"/>
       <c r="Y17" s="117"/>
       <c r="Z17" s="162"/>
@@ -4340,7 +4352,7 @@
       <c r="V19" s="115"/>
       <c r="W19" s="111"/>
       <c r="X19" s="183"/>
-      <c r="Y19" s="189"/>
+      <c r="Y19" s="188"/>
       <c r="Z19" s="162"/>
       <c r="AA19" s="119"/>
       <c r="AB19" s="112"/>
@@ -5202,7 +5214,7 @@
       <c r="O34" s="113"/>
       <c r="P34" s="121"/>
       <c r="Q34" s="115"/>
-      <c r="R34" s="190"/>
+      <c r="R34" s="189"/>
       <c r="S34" s="183"/>
       <c r="T34" s="117"/>
       <c r="U34" s="121"/>
@@ -5465,7 +5477,7 @@
       </c>
       <c r="D39" s="90">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>14.4</v>
+        <v>30.4</v>
       </c>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -5507,11 +5519,11 @@
       </c>
       <c r="S39" s="90">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="T39" s="94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U39" s="94">
         <f t="shared" si="2"/>
@@ -5616,15 +5628,15 @@
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="107"/>
@@ -5639,26 +5651,26 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="201"/>
-      <c r="O41" s="201"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="201"/>
-      <c r="S41" s="201"/>
-      <c r="T41" s="201"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="201"/>
-      <c r="X41" s="201"/>
-      <c r="Y41" s="201"/>
-      <c r="Z41" s="201"/>
-      <c r="AA41" s="201"/>
-      <c r="AB41" s="201"/>
-      <c r="AC41" s="201"/>
-      <c r="AD41" s="201"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="197"/>
+      <c r="M41" s="197"/>
+      <c r="N41" s="197"/>
+      <c r="O41" s="197"/>
+      <c r="P41" s="197"/>
+      <c r="Q41" s="197"/>
+      <c r="R41" s="197"/>
+      <c r="S41" s="197"/>
+      <c r="T41" s="197"/>
+      <c r="U41" s="197"/>
+      <c r="V41" s="197"/>
+      <c r="W41" s="197"/>
+      <c r="X41" s="197"/>
+      <c r="Y41" s="197"/>
+      <c r="Z41" s="197"/>
+      <c r="AA41" s="197"/>
+      <c r="AB41" s="197"/>
+      <c r="AC41" s="197"/>
+      <c r="AD41" s="197"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="106"/>
@@ -5673,26 +5685,26 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="199"/>
-      <c r="L42" s="199"/>
-      <c r="M42" s="199"/>
-      <c r="N42" s="199"/>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
-      <c r="U42" s="199"/>
-      <c r="V42" s="199"/>
-      <c r="W42" s="199"/>
-      <c r="X42" s="199"/>
-      <c r="Y42" s="199"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="199"/>
-      <c r="AB42" s="199"/>
-      <c r="AC42" s="199"/>
-      <c r="AD42" s="199"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="195"/>
+      <c r="O42" s="195"/>
+      <c r="P42" s="195"/>
+      <c r="Q42" s="195"/>
+      <c r="R42" s="195"/>
+      <c r="S42" s="195"/>
+      <c r="T42" s="195"/>
+      <c r="U42" s="195"/>
+      <c r="V42" s="195"/>
+      <c r="W42" s="195"/>
+      <c r="X42" s="195"/>
+      <c r="Y42" s="195"/>
+      <c r="Z42" s="195"/>
+      <c r="AA42" s="195"/>
+      <c r="AB42" s="195"/>
+      <c r="AC42" s="195"/>
+      <c r="AD42" s="195"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="108"/>
@@ -5707,26 +5719,26 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="199"/>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="199"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="199"/>
-      <c r="W43" s="199"/>
-      <c r="X43" s="199"/>
-      <c r="Y43" s="199"/>
-      <c r="Z43" s="199"/>
-      <c r="AA43" s="199"/>
-      <c r="AB43" s="199"/>
-      <c r="AC43" s="199"/>
-      <c r="AD43" s="199"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="195"/>
+      <c r="T43" s="195"/>
+      <c r="U43" s="195"/>
+      <c r="V43" s="195"/>
+      <c r="W43" s="195"/>
+      <c r="X43" s="195"/>
+      <c r="Y43" s="195"/>
+      <c r="Z43" s="195"/>
+      <c r="AA43" s="195"/>
+      <c r="AB43" s="195"/>
+      <c r="AC43" s="195"/>
+      <c r="AD43" s="195"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="182"/>
@@ -5737,11 +5749,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AO3:AS3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="K42:AD43"/>
-    <mergeCell ref="K41:AD41"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="U3:Y3"/>
@@ -5749,6 +5756,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AO3:AS3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="K42:AD43"/>
+    <mergeCell ref="K41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5781,20 +5793,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="204"/>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
+      <c r="A1" s="203"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="100"/>
@@ -5907,7 +5919,7 @@
       </c>
       <c r="B12" s="101">
         <f>Zeitplanung!S39</f>
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5917,7 +5929,7 @@
       </c>
       <c r="B13" s="101">
         <f>Zeitplanung!T39</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6123,10 +6135,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="206"/>
+      <c r="B36" s="205"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6135,24 +6147,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="202" t="s">
+      <c r="A37" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="203"/>
+      <c r="B37" s="202"/>
       <c r="C37" s="101">
         <f>Zeitplanung!C5</f>
         <v>22</v>
       </c>
       <c r="D37" s="101">
         <f>Zeitplanung!D5</f>
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="207"/>
       <c r="C38" s="101">
         <f>Zeitplanung!C11</f>
         <v>6</v>
@@ -6163,24 +6175,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="202" t="s">
+      <c r="A39" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="203"/>
+      <c r="B39" s="202"/>
       <c r="C39" s="101">
         <f>Zeitplanung!C16</f>
         <v>63.400000000000006</v>
       </c>
       <c r="D39" s="101">
         <f>Zeitplanung!D16</f>
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="208"/>
+      <c r="B40" s="207"/>
       <c r="C40" s="101">
         <f>Zeitplanung!C29</f>
         <v>6</v>
@@ -6191,10 +6203,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="202" t="s">
+      <c r="A41" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="203"/>
+      <c r="B41" s="202"/>
       <c r="C41" s="101">
         <f>Zeitplanung!C33</f>
         <v>5</v>
@@ -6205,10 +6217,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="202" t="s">
+      <c r="A42" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="203"/>
+      <c r="B42" s="202"/>
       <c r="C42" s="101">
         <f>Zeitplanung!C36</f>
         <v>0</v>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -1572,7 +1572,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1846,15 +1846,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,10 +2134,28 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,15 +2170,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2187,13 +2187,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2431,7 +2434,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2502,11 +2505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313915200"/>
-        <c:axId val="313919120"/>
+        <c:axId val="309416064"/>
+        <c:axId val="309419984"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="313915200"/>
+        <c:axId val="309416064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,14 +2519,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313919120"/>
+        <c:crossAx val="309419984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="313919120"/>
+        <c:axId val="309419984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313915200"/>
+        <c:crossAx val="309416064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2704,7 +2707,7 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3</c:v>
+                  <c:v>22.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2733,11 +2736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313920688"/>
-        <c:axId val="313915592"/>
+        <c:axId val="309416848"/>
+        <c:axId val="309421944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313920688"/>
+        <c:axId val="309416848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313915592"/>
+        <c:crossAx val="309421944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2755,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313915592"/>
+        <c:axId val="309421944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313920688"/>
+        <c:crossAx val="309416848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3207,8 +3210,8 @@
   </sheetPr>
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3231,38 +3234,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -3281,65 +3284,65 @@
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="193"/>
+      <c r="D3" s="195"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="19"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="192" t="s">
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="192" t="s">
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="192" t="s">
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="192" t="s">
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="193"/>
-      <c r="AJ3" s="192" t="s">
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="193"/>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="194"/>
-      <c r="AO3" s="192" t="s">
+      <c r="AK3" s="195"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="194"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="197"/>
     </row>
     <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
@@ -3358,10 +3361,10 @@
       <c r="F4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="96" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -3588,43 +3591,43 @@
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111">
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108">
         <v>2</v>
       </c>
-      <c r="N6" s="112"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="115"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="122"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="119"/>
     </row>
     <row r="7" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
@@ -3648,43 +3651,43 @@
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
       <c r="J7" s="67"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="180">
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="177">
         <v>6</v>
       </c>
-      <c r="S7" s="127"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="132"/>
-      <c r="AP7" s="126"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="133"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="128"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="130"/>
     </row>
     <row r="8" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
@@ -3708,43 +3711,43 @@
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
       <c r="J8" s="67"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="209">
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="190">
         <v>0.7</v>
       </c>
-      <c r="U8" s="125"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="130"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="132"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="134"/>
-      <c r="AN8" s="187"/>
-      <c r="AO8" s="132"/>
-      <c r="AP8" s="126"/>
-      <c r="AQ8" s="127"/>
-      <c r="AR8" s="134"/>
-      <c r="AS8" s="187"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="128"/>
+      <c r="AJ8" s="129"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="131"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="129"/>
+      <c r="AP8" s="123"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="184"/>
     </row>
     <row r="9" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="53">
@@ -3768,45 +3771,45 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="67"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="180">
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="177">
         <v>0.4</v>
       </c>
-      <c r="S9" s="179">
+      <c r="S9" s="176">
         <v>0.5</v>
       </c>
-      <c r="T9" s="128"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="125"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="134"/>
-      <c r="AN9" s="187"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="126"/>
-      <c r="AQ9" s="181"/>
-      <c r="AR9" s="134"/>
-      <c r="AS9" s="135"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="109"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="178"/>
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="132"/>
     </row>
     <row r="10" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
@@ -3830,41 +3833,41 @@
       <c r="H10" s="39"/>
       <c r="I10" s="35"/>
       <c r="J10" s="67"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="147"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="140"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="149"/>
-      <c r="AN10" s="135"/>
-      <c r="AO10" s="148"/>
-      <c r="AP10" s="140"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="149"/>
-      <c r="AS10" s="135"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="142"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="137"/>
+      <c r="AL10" s="139"/>
+      <c r="AM10" s="146"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="137"/>
+      <c r="AQ10" s="139"/>
+      <c r="AR10" s="146"/>
+      <c r="AS10" s="132"/>
     </row>
     <row r="11" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="72">
@@ -3887,41 +3890,41 @@
       <c r="H11" s="79"/>
       <c r="I11" s="80"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="153"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="155"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="153"/>
-      <c r="AN11" s="157"/>
-      <c r="AO11" s="155"/>
-      <c r="AP11" s="152"/>
-      <c r="AQ11" s="152"/>
-      <c r="AR11" s="153"/>
-      <c r="AS11" s="157"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="152"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="150"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="153"/>
+      <c r="AJ11" s="152"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="149"/>
+      <c r="AM11" s="150"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="149"/>
+      <c r="AQ11" s="149"/>
+      <c r="AR11" s="150"/>
+      <c r="AS11" s="154"/>
     </row>
     <row r="12" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
@@ -3945,45 +3948,45 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
       <c r="J12" s="67"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="123">
+      <c r="K12" s="155"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="120">
         <v>5</v>
       </c>
-      <c r="N12" s="112"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="180">
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="177">
         <v>0.5</v>
       </c>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="115"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="115"/>
-      <c r="AQ12" s="116"/>
-      <c r="AR12" s="159"/>
-      <c r="AS12" s="160"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="112"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="156"/>
+      <c r="AS12" s="157"/>
     </row>
     <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
@@ -3998,41 +4001,41 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
       <c r="J13" s="67"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="119"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="115"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="115"/>
-      <c r="AQ13" s="116"/>
-      <c r="AR13" s="159"/>
-      <c r="AS13" s="160"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="112"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="156"/>
+      <c r="AS13" s="157"/>
     </row>
     <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
@@ -4047,41 +4050,41 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
       <c r="J14" s="67"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="112"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="112"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="159"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="116"/>
-      <c r="AR14" s="159"/>
-      <c r="AS14" s="160"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="157"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="157"/>
     </row>
     <row r="15" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
@@ -4099,41 +4102,41 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="67"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="115"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="116"/>
-      <c r="AR15" s="159"/>
-      <c r="AS15" s="160"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="109"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="116"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="157"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="157"/>
     </row>
     <row r="16" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="72">
@@ -4148,7 +4151,7 @@
       </c>
       <c r="D16" s="76">
         <f>SUM(D17:D23)</f>
-        <v>15.3</v>
+        <v>22.900000000000002</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -4156,41 +4159,41 @@
       <c r="H16" s="79"/>
       <c r="I16" s="80"/>
       <c r="J16" s="81"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="155"/>
-      <c r="AK16" s="152"/>
-      <c r="AL16" s="152"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="155"/>
-      <c r="AP16" s="152"/>
-      <c r="AQ16" s="152"/>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="157"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="148"/>
+      <c r="AI16" s="153"/>
+      <c r="AJ16" s="152"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="152"/>
+      <c r="AP16" s="149"/>
+      <c r="AQ16" s="149"/>
+      <c r="AR16" s="150"/>
+      <c r="AS16" s="154"/>
     </row>
     <row r="17" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
@@ -4204,7 +4207,7 @@
       </c>
       <c r="D17" s="45">
         <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v>15.3</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4216,45 +4219,47 @@
         <v>43089</v>
       </c>
       <c r="J17" s="67"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="208">
+      <c r="K17" s="158"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="189">
         <v>8.5</v>
       </c>
-      <c r="T17" s="210">
+      <c r="T17" s="191">
         <v>6.8</v>
       </c>
-      <c r="U17" s="121"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="189"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="159"/>
-      <c r="AS17" s="160"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="177">
+        <v>3.1</v>
+      </c>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="159"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="159"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="109"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="157"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="156"/>
+      <c r="AS17" s="157"/>
     </row>
     <row r="18" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
@@ -4278,41 +4283,41 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
       <c r="J18" s="67"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="115"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="160"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="116"/>
-      <c r="AR18" s="159"/>
-      <c r="AS18" s="160"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="159"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="157"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="157"/>
     </row>
     <row r="19" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
@@ -4338,41 +4343,41 @@
         <v>43091</v>
       </c>
       <c r="J19" s="67"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="119"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="115"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="121"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="116"/>
-      <c r="AR19" s="159"/>
-      <c r="AS19" s="160"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="180"/>
+      <c r="Y19" s="185"/>
+      <c r="Z19" s="159"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="159"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="112"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="157"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="157"/>
     </row>
     <row r="20" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
@@ -4384,9 +4389,9 @@
       <c r="C20" s="32">
         <v>1.5</v>
       </c>
-      <c r="D20" s="45" t="str">
+      <c r="D20" s="156">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -4396,41 +4401,43 @@
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
       <c r="J20" s="67"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="112"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="120"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="183"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="160"/>
-      <c r="AO20" s="121"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="116"/>
-      <c r="AR20" s="159"/>
-      <c r="AS20" s="160"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="177">
+        <v>4.5</v>
+      </c>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="159"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="159"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="112"/>
+      <c r="AL20" s="180"/>
+      <c r="AM20" s="156"/>
+      <c r="AN20" s="157"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="156"/>
+      <c r="AS20" s="157"/>
     </row>
     <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
@@ -4454,41 +4461,41 @@
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
       <c r="J21" s="67"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="183"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="160"/>
-      <c r="AO21" s="121"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="116"/>
-      <c r="AR21" s="159"/>
-      <c r="AS21" s="160"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="159"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="109"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="180"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="157"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="112"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="156"/>
+      <c r="AS21" s="157"/>
     </row>
     <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
@@ -4512,41 +4519,41 @@
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
       <c r="J22" s="67"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="119"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="119"/>
-      <c r="AI22" s="120"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="115"/>
-      <c r="AL22" s="116"/>
-      <c r="AM22" s="185"/>
-      <c r="AN22" s="160"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="116"/>
-      <c r="AR22" s="159"/>
-      <c r="AS22" s="160"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="159"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="112"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="182"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="112"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="156"/>
+      <c r="AS22" s="157"/>
     </row>
     <row r="23" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
@@ -4570,41 +4577,41 @@
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
       <c r="J23" s="67"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="126"/>
-      <c r="AL23" s="127"/>
-      <c r="AM23" s="186"/>
-      <c r="AN23" s="135"/>
-      <c r="AO23" s="165"/>
-      <c r="AP23" s="126"/>
-      <c r="AQ23" s="127"/>
-      <c r="AR23" s="134"/>
-      <c r="AS23" s="135"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="109"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="123"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="162"/>
+      <c r="AP23" s="123"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="131"/>
+      <c r="AS23" s="132"/>
     </row>
     <row r="24" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
@@ -4630,41 +4637,41 @@
         <v>42747</v>
       </c>
       <c r="J24" s="67"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="119"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="115"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="185"/>
-      <c r="AN24" s="184"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="115"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="159"/>
-      <c r="AS24" s="160"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="159"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="159"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="182"/>
+      <c r="AN24" s="181"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="156"/>
+      <c r="AS24" s="157"/>
     </row>
     <row r="25" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
@@ -4688,41 +4695,41 @@
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
       <c r="J25" s="67"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="119"/>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="115"/>
-      <c r="AL25" s="116"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="184"/>
-      <c r="AO25" s="121"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="183"/>
-      <c r="AR25" s="159"/>
-      <c r="AS25" s="160"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="159"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="159"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="109"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="181"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="180"/>
+      <c r="AR25" s="156"/>
+      <c r="AS25" s="157"/>
     </row>
     <row r="26" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
@@ -4746,41 +4753,41 @@
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
       <c r="J26" s="67"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="119"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="119"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="115"/>
-      <c r="AL26" s="116"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="183"/>
-      <c r="AR26" s="159"/>
-      <c r="AS26" s="160"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="109"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="157"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="180"/>
+      <c r="AR26" s="156"/>
+      <c r="AS26" s="157"/>
     </row>
     <row r="27" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
@@ -4804,41 +4811,41 @@
       <c r="H27" s="34"/>
       <c r="I27" s="35"/>
       <c r="J27" s="67"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="165"/>
-      <c r="AK27" s="126"/>
-      <c r="AL27" s="127"/>
-      <c r="AM27" s="134"/>
-      <c r="AN27" s="135"/>
-      <c r="AO27" s="165"/>
-      <c r="AP27" s="126"/>
-      <c r="AQ27" s="181"/>
-      <c r="AR27" s="134"/>
-      <c r="AS27" s="135"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="123"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="123"/>
+      <c r="AL27" s="124"/>
+      <c r="AM27" s="131"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="162"/>
+      <c r="AP27" s="123"/>
+      <c r="AQ27" s="178"/>
+      <c r="AR27" s="131"/>
+      <c r="AS27" s="132"/>
     </row>
     <row r="28" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
@@ -4864,41 +4871,41 @@
         <v>42752</v>
       </c>
       <c r="J28" s="67"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="127"/>
-      <c r="AM28" s="134"/>
-      <c r="AN28" s="135"/>
-      <c r="AO28" s="165"/>
-      <c r="AP28" s="126"/>
-      <c r="AQ28" s="181"/>
-      <c r="AR28" s="134"/>
-      <c r="AS28" s="135"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="123"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="131"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="178"/>
+      <c r="AR28" s="131"/>
+      <c r="AS28" s="132"/>
     </row>
     <row r="29" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="72">
@@ -4921,41 +4928,41 @@
       <c r="H29" s="79"/>
       <c r="I29" s="80"/>
       <c r="J29" s="81"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="152"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="152"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="156"/>
-      <c r="AJ29" s="155"/>
-      <c r="AK29" s="152"/>
-      <c r="AL29" s="152"/>
-      <c r="AM29" s="153"/>
-      <c r="AN29" s="157"/>
-      <c r="AO29" s="155"/>
-      <c r="AP29" s="152"/>
-      <c r="AQ29" s="152"/>
-      <c r="AR29" s="153"/>
-      <c r="AS29" s="157"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="152"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="150"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="153"/>
+      <c r="AJ29" s="152"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="152"/>
+      <c r="AP29" s="149"/>
+      <c r="AQ29" s="149"/>
+      <c r="AR29" s="150"/>
+      <c r="AS29" s="154"/>
     </row>
     <row r="30" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
@@ -4979,41 +4986,41 @@
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="J30" s="68"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="119"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="119"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="119"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="115"/>
-      <c r="AL30" s="116"/>
-      <c r="AM30" s="116"/>
-      <c r="AN30" s="166"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="115"/>
-      <c r="AQ30" s="116"/>
-      <c r="AR30" s="116"/>
-      <c r="AS30" s="166"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="159"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="112"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="163"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="113"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="163"/>
     </row>
     <row r="31" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
@@ -5037,41 +5044,41 @@
       <c r="H31" s="34"/>
       <c r="I31" s="35"/>
       <c r="J31" s="68"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="119"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="127"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="167"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="126"/>
-      <c r="AQ31" s="127"/>
-      <c r="AR31" s="127"/>
-      <c r="AS31" s="167"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="159"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="123"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="124"/>
+      <c r="AN31" s="164"/>
+      <c r="AO31" s="118"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="124"/>
+      <c r="AR31" s="124"/>
+      <c r="AS31" s="164"/>
     </row>
     <row r="32" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
@@ -5095,41 +5102,41 @@
       <c r="H32" s="39"/>
       <c r="I32" s="35"/>
       <c r="J32" s="68"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="171"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="169"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="171"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="172"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="174"/>
-      <c r="AJ32" s="168"/>
-      <c r="AK32" s="115"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="133"/>
-      <c r="AO32" s="168"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="116"/>
-      <c r="AR32" s="116"/>
-      <c r="AS32" s="133"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="166"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="167"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="170"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="170"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="170"/>
+      <c r="AI32" s="171"/>
+      <c r="AJ32" s="165"/>
+      <c r="AK32" s="112"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="165"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="130"/>
     </row>
     <row r="33" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="72">
@@ -5152,41 +5159,41 @@
       <c r="H33" s="79"/>
       <c r="I33" s="80"/>
       <c r="J33" s="81"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="152"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="152"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="155"/>
-      <c r="AF33" s="152"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="155"/>
-      <c r="AK33" s="152"/>
-      <c r="AL33" s="152"/>
-      <c r="AM33" s="153"/>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="155"/>
-      <c r="AP33" s="152"/>
-      <c r="AQ33" s="152"/>
-      <c r="AR33" s="153"/>
-      <c r="AS33" s="157"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="153"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="152"/>
+      <c r="AP33" s="149"/>
+      <c r="AQ33" s="149"/>
+      <c r="AR33" s="150"/>
+      <c r="AS33" s="154"/>
     </row>
     <row r="34" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
@@ -5207,41 +5214,41 @@
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="68"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="189"/>
-      <c r="S34" s="183"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="119"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="119"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="119"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="119"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="115"/>
-      <c r="AL34" s="116"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="166"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="115"/>
-      <c r="AQ34" s="183"/>
-      <c r="AR34" s="116"/>
-      <c r="AS34" s="166"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="180"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="116"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="159"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="109"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="112"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="163"/>
+      <c r="AO34" s="118"/>
+      <c r="AP34" s="112"/>
+      <c r="AQ34" s="180"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="163"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
@@ -5259,41 +5266,41 @@
       <c r="H35" s="44"/>
       <c r="I35" s="35"/>
       <c r="J35" s="67"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="168"/>
-      <c r="Q35" s="169"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="170"/>
-      <c r="T35" s="171"/>
-      <c r="U35" s="168"/>
-      <c r="V35" s="169"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="170"/>
-      <c r="Y35" s="171"/>
-      <c r="Z35" s="172"/>
-      <c r="AA35" s="173"/>
-      <c r="AB35" s="146"/>
-      <c r="AC35" s="173"/>
-      <c r="AD35" s="174"/>
-      <c r="AE35" s="172"/>
-      <c r="AF35" s="173"/>
-      <c r="AG35" s="146"/>
-      <c r="AH35" s="173"/>
-      <c r="AI35" s="174"/>
-      <c r="AJ35" s="177"/>
-      <c r="AK35" s="169"/>
-      <c r="AL35" s="170"/>
-      <c r="AM35" s="170"/>
-      <c r="AN35" s="133"/>
-      <c r="AO35" s="177"/>
-      <c r="AP35" s="169"/>
-      <c r="AQ35" s="170"/>
-      <c r="AR35" s="170"/>
-      <c r="AS35" s="133"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="173"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="165"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="168"/>
+      <c r="U35" s="165"/>
+      <c r="V35" s="166"/>
+      <c r="W35" s="138"/>
+      <c r="X35" s="167"/>
+      <c r="Y35" s="168"/>
+      <c r="Z35" s="169"/>
+      <c r="AA35" s="170"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="170"/>
+      <c r="AD35" s="171"/>
+      <c r="AE35" s="169"/>
+      <c r="AF35" s="170"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="170"/>
+      <c r="AI35" s="171"/>
+      <c r="AJ35" s="174"/>
+      <c r="AK35" s="166"/>
+      <c r="AL35" s="167"/>
+      <c r="AM35" s="167"/>
+      <c r="AN35" s="130"/>
+      <c r="AO35" s="174"/>
+      <c r="AP35" s="166"/>
+      <c r="AQ35" s="167"/>
+      <c r="AR35" s="167"/>
+      <c r="AS35" s="130"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="72">
@@ -5316,41 +5323,41 @@
       <c r="H36" s="79"/>
       <c r="I36" s="80"/>
       <c r="J36" s="81"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="152"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="152"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="156"/>
-      <c r="Z36" s="155"/>
-      <c r="AA36" s="152"/>
-      <c r="AB36" s="153"/>
-      <c r="AC36" s="151"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="155"/>
-      <c r="AF36" s="152"/>
-      <c r="AG36" s="153"/>
-      <c r="AH36" s="151"/>
-      <c r="AI36" s="156"/>
-      <c r="AJ36" s="155"/>
-      <c r="AK36" s="152"/>
-      <c r="AL36" s="152"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="157"/>
-      <c r="AO36" s="155"/>
-      <c r="AP36" s="152"/>
-      <c r="AQ36" s="152"/>
-      <c r="AR36" s="153"/>
-      <c r="AS36" s="157"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="152"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="148"/>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="152"/>
+      <c r="AF36" s="149"/>
+      <c r="AG36" s="150"/>
+      <c r="AH36" s="148"/>
+      <c r="AI36" s="153"/>
+      <c r="AJ36" s="152"/>
+      <c r="AK36" s="149"/>
+      <c r="AL36" s="149"/>
+      <c r="AM36" s="150"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="152"/>
+      <c r="AP36" s="149"/>
+      <c r="AQ36" s="149"/>
+      <c r="AR36" s="150"/>
+      <c r="AS36" s="154"/>
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
@@ -5372,41 +5379,41 @@
       <c r="H37" s="34"/>
       <c r="I37" s="35"/>
       <c r="J37" s="70"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="115"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="162"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="119"/>
-      <c r="AD37" s="120"/>
-      <c r="AE37" s="162"/>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="119"/>
-      <c r="AI37" s="120"/>
-      <c r="AJ37" s="114"/>
-      <c r="AK37" s="115"/>
-      <c r="AL37" s="116"/>
-      <c r="AM37" s="116"/>
-      <c r="AN37" s="167"/>
-      <c r="AO37" s="114"/>
-      <c r="AP37" s="115"/>
-      <c r="AQ37" s="116"/>
-      <c r="AR37" s="116"/>
-      <c r="AS37" s="167"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="159"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="117"/>
+      <c r="AE37" s="159"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="116"/>
+      <c r="AI37" s="117"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="112"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="164"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="112"/>
+      <c r="AQ37" s="113"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="164"/>
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="53">
@@ -5424,47 +5431,47 @@
         <v>1</v>
       </c>
       <c r="F38" s="50"/>
-      <c r="G38" s="97"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="51"/>
       <c r="I38" s="35">
         <v>43118</v>
       </c>
       <c r="J38" s="69"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="165"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="165"/>
-      <c r="V38" s="126"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="178"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="112"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="131"/>
-      <c r="AE38" s="178"/>
-      <c r="AF38" s="130"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="130"/>
-      <c r="AI38" s="131"/>
-      <c r="AJ38" s="125"/>
-      <c r="AK38" s="126"/>
-      <c r="AL38" s="127"/>
-      <c r="AM38" s="127"/>
-      <c r="AN38" s="167"/>
-      <c r="AO38" s="125"/>
-      <c r="AP38" s="126"/>
-      <c r="AQ38" s="127"/>
-      <c r="AR38" s="127"/>
-      <c r="AS38" s="167"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="124"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="124"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="175"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="128"/>
+      <c r="AE38" s="175"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="127"/>
+      <c r="AI38" s="128"/>
+      <c r="AJ38" s="122"/>
+      <c r="AK38" s="123"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AN38" s="164"/>
+      <c r="AO38" s="122"/>
+      <c r="AP38" s="123"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="124"/>
+      <c r="AS38" s="164"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="71"/>
@@ -5477,7 +5484,7 @@
       </c>
       <c r="D39" s="90">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>30.4</v>
+        <v>38</v>
       </c>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -5485,161 +5492,161 @@
       <c r="H39" s="90"/>
       <c r="I39" s="91"/>
       <c r="J39" s="92"/>
-      <c r="K39" s="93">
+      <c r="K39" s="209">
         <f t="shared" ref="K39:AS39" si="2">SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="90">
+      <c r="L39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M39" s="94">
+      <c r="M39" s="208">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N39" s="94">
+      <c r="N39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="94">
+      <c r="O39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="94">
+      <c r="P39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="90">
+      <c r="Q39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="94">
+      <c r="R39" s="208">
         <f t="shared" si="2"/>
         <v>6.9</v>
       </c>
-      <c r="S39" s="90">
+      <c r="S39" s="210">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T39" s="94">
+      <c r="T39" s="208">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="U39" s="94">
+      <c r="U39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V39" s="90">
+      <c r="V39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W39" s="94">
+      <c r="W39" s="208">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="90">
+        <v>7.6</v>
+      </c>
+      <c r="X39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="94">
+      <c r="Y39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="94">
+      <c r="Z39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="90">
+      <c r="AA39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="94">
+      <c r="AB39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="90">
+      <c r="AC39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="94">
+      <c r="AD39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="94">
+      <c r="AE39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="90">
+      <c r="AF39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="94">
+      <c r="AG39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="90">
+      <c r="AH39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="94">
+      <c r="AI39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="94">
+      <c r="AJ39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="90">
+      <c r="AK39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="94">
+      <c r="AL39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="90">
+      <c r="AM39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="95">
+      <c r="AN39" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="94">
+      <c r="AO39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP39" s="90">
+      <c r="AP39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ39" s="94">
+      <c r="AQ39" s="208">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR39" s="90">
+      <c r="AR39" s="210">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS39" s="95">
+      <c r="AS39" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="192"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="107"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -5651,29 +5658,29 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="196"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="197"/>
-      <c r="N41" s="197"/>
-      <c r="O41" s="197"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="197"/>
-      <c r="R41" s="197"/>
-      <c r="S41" s="197"/>
-      <c r="T41" s="197"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197"/>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
-      <c r="AD41" s="197"/>
+      <c r="K41" s="199"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="200"/>
+      <c r="O41" s="200"/>
+      <c r="P41" s="200"/>
+      <c r="Q41" s="200"/>
+      <c r="R41" s="200"/>
+      <c r="S41" s="200"/>
+      <c r="T41" s="200"/>
+      <c r="U41" s="200"/>
+      <c r="V41" s="200"/>
+      <c r="W41" s="200"/>
+      <c r="X41" s="200"/>
+      <c r="Y41" s="200"/>
+      <c r="Z41" s="200"/>
+      <c r="AA41" s="200"/>
+      <c r="AB41" s="200"/>
+      <c r="AC41" s="200"/>
+      <c r="AD41" s="200"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
@@ -5685,29 +5692,29 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="195"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
-      <c r="O42" s="195"/>
-      <c r="P42" s="195"/>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="195"/>
-      <c r="S42" s="195"/>
-      <c r="T42" s="195"/>
-      <c r="U42" s="195"/>
-      <c r="V42" s="195"/>
-      <c r="W42" s="195"/>
-      <c r="X42" s="195"/>
-      <c r="Y42" s="195"/>
-      <c r="Z42" s="195"/>
-      <c r="AA42" s="195"/>
-      <c r="AB42" s="195"/>
-      <c r="AC42" s="195"/>
-      <c r="AD42" s="195"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="198"/>
+      <c r="R42" s="198"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="198"/>
+      <c r="U42" s="198"/>
+      <c r="V42" s="198"/>
+      <c r="W42" s="198"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="198"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+      <c r="AC42" s="198"/>
+      <c r="AD42" s="198"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="108"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="9" t="s">
         <v>57</v>
       </c>
@@ -5719,29 +5726,29 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="195"/>
-      <c r="O43" s="195"/>
-      <c r="P43" s="195"/>
-      <c r="Q43" s="195"/>
-      <c r="R43" s="195"/>
-      <c r="S43" s="195"/>
-      <c r="T43" s="195"/>
-      <c r="U43" s="195"/>
-      <c r="V43" s="195"/>
-      <c r="W43" s="195"/>
-      <c r="X43" s="195"/>
-      <c r="Y43" s="195"/>
-      <c r="Z43" s="195"/>
-      <c r="AA43" s="195"/>
-      <c r="AB43" s="195"/>
-      <c r="AC43" s="195"/>
-      <c r="AD43" s="195"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="198"/>
+      <c r="R43" s="198"/>
+      <c r="S43" s="198"/>
+      <c r="T43" s="198"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="198"/>
+      <c r="W43" s="198"/>
+      <c r="X43" s="198"/>
+      <c r="Y43" s="198"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
+      <c r="AC43" s="198"/>
+      <c r="AD43" s="198"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="182"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
@@ -5749,6 +5756,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AO3:AS3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="K42:AD43"/>
+    <mergeCell ref="K41:AD41"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="U3:Y3"/>
@@ -5756,11 +5768,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AO3:AS3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="K42:AD43"/>
-    <mergeCell ref="K41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5786,8 +5793,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="104" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="102" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -5809,8 +5816,8 @@
       <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5825,309 +5832,309 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="102" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="103">
+      <c r="A4" s="100">
         <f>Zeitplanung!K$4</f>
         <v>43073</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="98">
         <f>Zeitplanung!K39</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="103">
+      <c r="A5" s="100">
         <f>Zeitplanung!L$4</f>
         <v>43074</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="98">
         <f>Zeitplanung!L39</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103">
+      <c r="A6" s="100">
         <f>Zeitplanung!M$4</f>
         <v>43075</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="98">
         <f>Zeitplanung!M39</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="103">
+      <c r="A7" s="100">
         <f>Zeitplanung!N$4</f>
         <v>43076</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="98">
         <f>Zeitplanung!N39</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="103">
+      <c r="A8" s="100">
         <f>Zeitplanung!O$4</f>
         <v>43077</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="98">
         <f>Zeitplanung!O39</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="103">
+      <c r="A9" s="100">
         <f>Zeitplanung!P$4</f>
         <v>43080</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="98">
         <f>Zeitplanung!P39</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="103">
+      <c r="A10" s="100">
         <f>Zeitplanung!Q$4</f>
         <v>43081</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="98">
         <f>Zeitplanung!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="103">
+      <c r="A11" s="100">
         <f>Zeitplanung!R$4</f>
         <v>43082</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="98">
         <f>Zeitplanung!R39</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="103">
+      <c r="A12" s="100">
         <f>Zeitplanung!S$4</f>
         <v>43083</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="98">
         <f>Zeitplanung!S39</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="103">
+      <c r="A13" s="100">
         <f>Zeitplanung!T$4</f>
         <v>43084</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="98">
         <f>Zeitplanung!T39</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="103">
+      <c r="A14" s="100">
         <f>Zeitplanung!U$4</f>
         <v>43087</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="98">
         <f>Zeitplanung!U39</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="103">
+      <c r="A15" s="100">
         <f>Zeitplanung!V$4</f>
         <v>43088</v>
       </c>
-      <c r="B15" s="101">
+      <c r="B15" s="98">
         <f>Zeitplanung!V39</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="103">
+      <c r="A16" s="100">
         <f>Zeitplanung!W$4</f>
         <v>43089</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B16" s="98">
         <f>Zeitplanung!W39</f>
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="103">
+      <c r="A17" s="100">
         <f>Zeitplanung!X$4</f>
         <v>43090</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="98">
         <f>Zeitplanung!X39</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="103">
+      <c r="A18" s="100">
         <f>Zeitplanung!Y$4</f>
         <v>43091</v>
       </c>
-      <c r="B18" s="101">
+      <c r="B18" s="98">
         <f>Zeitplanung!Y39</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="103">
+      <c r="A19" s="100">
         <f>Zeitplanung!Z$4</f>
         <v>43094</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="98">
         <f>Zeitplanung!Z39</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="103">
+      <c r="A20" s="100">
         <f>Zeitplanung!AA$4</f>
         <v>43095</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="98">
         <f>Zeitplanung!AA39</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="103">
+      <c r="A21" s="100">
         <f>Zeitplanung!AB$4</f>
         <v>43096</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="98">
         <f>Zeitplanung!AB39</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="103">
+      <c r="A22" s="100">
         <f>Zeitplanung!AC$4</f>
         <v>43097</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="98">
         <f>Zeitplanung!AC39</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="103">
+      <c r="A23" s="100">
         <f>Zeitplanung!AD$4</f>
         <v>43098</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="98">
         <f>Zeitplanung!AD39</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="103">
+      <c r="A24" s="100">
         <f>Zeitplanung!AE$4</f>
         <v>43101</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="98">
         <f>Zeitplanung!AE39</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="103">
+      <c r="A25" s="100">
         <f>Zeitplanung!AF$4</f>
         <v>43102</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="98">
         <f>Zeitplanung!AF39</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="103">
+      <c r="A26" s="100">
         <f>Zeitplanung!AG$4</f>
         <v>43103</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="98">
         <f>Zeitplanung!AG39</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="103">
+      <c r="A27" s="100">
         <f>Zeitplanung!AH$4</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="98">
         <f>Zeitplanung!AH39</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="103">
+      <c r="A28" s="100">
         <f>Zeitplanung!AI$4</f>
         <v>43105</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="98">
         <f>Zeitplanung!AI39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="103">
+      <c r="A29" s="100">
         <f>Zeitplanung!AJ$4</f>
         <v>43108</v>
       </c>
-      <c r="B29" s="101">
+      <c r="B29" s="98">
         <f>Zeitplanung!AJ39</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="103">
+      <c r="A30" s="100">
         <f>Zeitplanung!AK$4</f>
         <v>43109</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B30" s="98">
         <f>Zeitplanung!AK39</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="103">
+      <c r="A31" s="100">
         <f>Zeitplanung!AL$4</f>
         <v>43110</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="98">
         <f>Zeitplanung!AL39</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="103">
+      <c r="A32" s="100">
         <f>Zeitplanung!AM$4</f>
         <v>43111</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="98">
         <f>Zeitplanung!AM39</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="103">
+      <c r="A33" s="100">
         <f>Zeitplanung!AN$4</f>
         <v>43112</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="98">
         <f>Zeitplanung!AN39</f>
         <v>0</v>
       </c>
@@ -6151,11 +6158,11 @@
         <v>11</v>
       </c>
       <c r="B37" s="202"/>
-      <c r="C37" s="101">
+      <c r="C37" s="98">
         <f>Zeitplanung!C5</f>
         <v>22</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="98">
         <f>Zeitplanung!D5</f>
         <v>9.6</v>
       </c>
@@ -6165,11 +6172,11 @@
         <v>14</v>
       </c>
       <c r="B38" s="207"/>
-      <c r="C38" s="101">
+      <c r="C38" s="98">
         <f>Zeitplanung!C11</f>
         <v>6</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="98">
         <f>Zeitplanung!D11</f>
         <v>5.5</v>
       </c>
@@ -6179,13 +6186,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="202"/>
-      <c r="C39" s="101">
+      <c r="C39" s="98">
         <f>Zeitplanung!C16</f>
         <v>63.400000000000006</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="98">
         <f>Zeitplanung!D16</f>
-        <v>15.3</v>
+        <v>22.900000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6193,11 +6200,11 @@
         <v>8</v>
       </c>
       <c r="B40" s="207"/>
-      <c r="C40" s="101">
+      <c r="C40" s="98">
         <f>Zeitplanung!C29</f>
         <v>6</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="98">
         <f>Zeitplanung!D29</f>
         <v>0</v>
       </c>
@@ -6207,11 +6214,11 @@
         <v>12</v>
       </c>
       <c r="B41" s="202"/>
-      <c r="C41" s="101">
+      <c r="C41" s="98">
         <f>Zeitplanung!C33</f>
         <v>5</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="98">
         <f>Zeitplanung!D33</f>
         <v>0</v>
       </c>
@@ -6221,11 +6228,11 @@
         <v>9</v>
       </c>
       <c r="B42" s="202"/>
-      <c r="C42" s="101">
+      <c r="C42" s="98">
         <f>Zeitplanung!C36</f>
         <v>0</v>
       </c>
-      <c r="D42" s="101">
+      <c r="D42" s="98">
         <f>Zeitplanung!D36</f>
         <v>0</v>
       </c>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -2143,6 +2143,18 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2187,18 +2199,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2437,10 +2437,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2479,7 +2479,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2505,11 +2505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="309416064"/>
-        <c:axId val="309419984"/>
+        <c:axId val="316088096"/>
+        <c:axId val="316088488"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="309416064"/>
+        <c:axId val="316088096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,14 +2519,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309419984"/>
+        <c:crossAx val="316088488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="309419984"/>
+        <c:axId val="316088488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309416064"/>
+        <c:crossAx val="316088096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2707,7 +2707,7 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.900000000000002</c:v>
+                  <c:v>46.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2736,11 +2736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="309416848"/>
-        <c:axId val="309421944"/>
+        <c:axId val="316084568"/>
+        <c:axId val="316089272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309416848"/>
+        <c:axId val="316084568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309421944"/>
+        <c:crossAx val="316089272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309421944"/>
+        <c:axId val="316089272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309416848"/>
+        <c:crossAx val="316084568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,8 +3210,8 @@
   </sheetPr>
   <dimension ref="A1:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3234,38 +3234,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -3284,65 +3284,65 @@
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="195"/>
+      <c r="D3" s="199"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="G3" s="19"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="195" t="s">
+      <c r="K3" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="194" t="s">
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="194" t="s">
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="194" t="s">
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="194" t="s">
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="195"/>
-      <c r="AJ3" s="194" t="s">
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="195"/>
-      <c r="AL3" s="195"/>
-      <c r="AM3" s="195"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="194" t="s">
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="199"/>
+      <c r="AM3" s="199"/>
+      <c r="AN3" s="201"/>
+      <c r="AO3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="195"/>
-      <c r="AQ3" s="195"/>
-      <c r="AR3" s="195"/>
-      <c r="AS3" s="197"/>
+      <c r="AP3" s="199"/>
+      <c r="AQ3" s="199"/>
+      <c r="AR3" s="199"/>
+      <c r="AS3" s="201"/>
     </row>
     <row r="4" spans="1:45" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D16" s="76">
         <f>SUM(D17:D23)</f>
-        <v>22.900000000000002</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="78"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D17" s="45">
         <f t="shared" ref="D17:D22" si="1">IF(SUM(K17:AS17)=0," ",SUM(K17:AS17))</f>
-        <v>18.400000000000002</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4252,7 +4252,9 @@
       <c r="AI17" s="117"/>
       <c r="AJ17" s="118"/>
       <c r="AK17" s="112"/>
-      <c r="AL17" s="113"/>
+      <c r="AL17" s="189">
+        <v>4</v>
+      </c>
       <c r="AM17" s="156"/>
       <c r="AN17" s="157"/>
       <c r="AO17" s="118"/>
@@ -4271,9 +4273,9 @@
       <c r="C18" s="32">
         <v>4.5</v>
       </c>
-      <c r="D18" s="45" t="str">
+      <c r="D18" s="45">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>4.5</v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
@@ -4310,7 +4312,9 @@
       <c r="AI18" s="117"/>
       <c r="AJ18" s="118"/>
       <c r="AK18" s="112"/>
-      <c r="AL18" s="113"/>
+      <c r="AL18" s="189">
+        <v>4.5</v>
+      </c>
       <c r="AM18" s="156"/>
       <c r="AN18" s="157"/>
       <c r="AO18" s="118"/>
@@ -4356,7 +4360,7 @@
       <c r="U19" s="118"/>
       <c r="V19" s="112"/>
       <c r="W19" s="108"/>
-      <c r="X19" s="180"/>
+      <c r="X19" s="113"/>
       <c r="Y19" s="185"/>
       <c r="Z19" s="159"/>
       <c r="AA19" s="116"/>
@@ -4391,7 +4395,7 @@
       </c>
       <c r="D20" s="156">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>19.5</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
@@ -4416,8 +4420,12 @@
       <c r="W20" s="177">
         <v>4.5</v>
       </c>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="114"/>
+      <c r="X20" s="189">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="191">
+        <v>7</v>
+      </c>
       <c r="Z20" s="159"/>
       <c r="AA20" s="116"/>
       <c r="AB20" s="109"/>
@@ -5484,7 +5492,7 @@
       </c>
       <c r="D39" s="90">
         <f>SUM(D36+D33+D29+D16+D11+D5)</f>
-        <v>38</v>
+        <v>61.500000000000007</v>
       </c>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -5492,158 +5500,158 @@
       <c r="H39" s="90"/>
       <c r="I39" s="91"/>
       <c r="J39" s="92"/>
-      <c r="K39" s="209">
+      <c r="K39" s="193">
         <f t="shared" ref="K39:AS39" si="2">SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="210">
+      <c r="L39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M39" s="208">
+      <c r="M39" s="192">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N39" s="208">
+      <c r="N39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="208">
+      <c r="O39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="208">
+      <c r="P39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="210">
+      <c r="Q39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="208">
+      <c r="R39" s="192">
         <f t="shared" si="2"/>
         <v>6.9</v>
       </c>
-      <c r="S39" s="210">
+      <c r="S39" s="194">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T39" s="208">
+      <c r="T39" s="192">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="U39" s="208">
+      <c r="U39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V39" s="210">
+      <c r="V39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W39" s="208">
+      <c r="W39" s="192">
         <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
-      <c r="X39" s="210">
+      <c r="X39" s="194">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y39" s="192">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Z39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="208">
+      <c r="AA39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="208">
+      <c r="AB39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="210">
+      <c r="AC39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="208">
+      <c r="AD39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="210">
+      <c r="AE39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="208">
+      <c r="AF39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="208">
+      <c r="AG39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="210">
+      <c r="AH39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="208">
+      <c r="AI39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="210">
+      <c r="AJ39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="208">
+      <c r="AK39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="208">
+      <c r="AL39" s="192">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AM39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="210">
+      <c r="AN39" s="195">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="208">
+      <c r="AO39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="210">
+      <c r="AP39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="211">
+      <c r="AQ39" s="192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="208">
+      <c r="AR39" s="194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP39" s="210">
+      <c r="AS39" s="195">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ39" s="208">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="210">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="211">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="93"/>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="192"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="104"/>
@@ -5658,26 +5666,26 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="199"/>
-      <c r="L41" s="200"/>
-      <c r="M41" s="200"/>
-      <c r="N41" s="200"/>
-      <c r="O41" s="200"/>
-      <c r="P41" s="200"/>
-      <c r="Q41" s="200"/>
-      <c r="R41" s="200"/>
-      <c r="S41" s="200"/>
-      <c r="T41" s="200"/>
-      <c r="U41" s="200"/>
-      <c r="V41" s="200"/>
-      <c r="W41" s="200"/>
-      <c r="X41" s="200"/>
-      <c r="Y41" s="200"/>
-      <c r="Z41" s="200"/>
-      <c r="AA41" s="200"/>
-      <c r="AB41" s="200"/>
-      <c r="AC41" s="200"/>
-      <c r="AD41" s="200"/>
+      <c r="K41" s="203"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="204"/>
+      <c r="P41" s="204"/>
+      <c r="Q41" s="204"/>
+      <c r="R41" s="204"/>
+      <c r="S41" s="204"/>
+      <c r="T41" s="204"/>
+      <c r="U41" s="204"/>
+      <c r="V41" s="204"/>
+      <c r="W41" s="204"/>
+      <c r="X41" s="204"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="204"/>
+      <c r="AA41" s="204"/>
+      <c r="AB41" s="204"/>
+      <c r="AC41" s="204"/>
+      <c r="AD41" s="204"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="103"/>
@@ -5692,26 +5700,26 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="198"/>
-      <c r="L42" s="198"/>
-      <c r="M42" s="198"/>
-      <c r="N42" s="198"/>
-      <c r="O42" s="198"/>
-      <c r="P42" s="198"/>
-      <c r="Q42" s="198"/>
-      <c r="R42" s="198"/>
-      <c r="S42" s="198"/>
-      <c r="T42" s="198"/>
-      <c r="U42" s="198"/>
-      <c r="V42" s="198"/>
-      <c r="W42" s="198"/>
-      <c r="X42" s="198"/>
-      <c r="Y42" s="198"/>
-      <c r="Z42" s="198"/>
-      <c r="AA42" s="198"/>
-      <c r="AB42" s="198"/>
-      <c r="AC42" s="198"/>
-      <c r="AD42" s="198"/>
+      <c r="K42" s="202"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="202"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="202"/>
+      <c r="P42" s="202"/>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
+      <c r="S42" s="202"/>
+      <c r="T42" s="202"/>
+      <c r="U42" s="202"/>
+      <c r="V42" s="202"/>
+      <c r="W42" s="202"/>
+      <c r="X42" s="202"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="202"/>
+      <c r="AA42" s="202"/>
+      <c r="AB42" s="202"/>
+      <c r="AC42" s="202"/>
+      <c r="AD42" s="202"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="105"/>
@@ -5726,26 +5734,26 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="198"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="198"/>
-      <c r="P43" s="198"/>
-      <c r="Q43" s="198"/>
-      <c r="R43" s="198"/>
-      <c r="S43" s="198"/>
-      <c r="T43" s="198"/>
-      <c r="U43" s="198"/>
-      <c r="V43" s="198"/>
-      <c r="W43" s="198"/>
-      <c r="X43" s="198"/>
-      <c r="Y43" s="198"/>
-      <c r="Z43" s="198"/>
-      <c r="AA43" s="198"/>
-      <c r="AB43" s="198"/>
-      <c r="AC43" s="198"/>
-      <c r="AD43" s="198"/>
+      <c r="K43" s="202"/>
+      <c r="L43" s="202"/>
+      <c r="M43" s="202"/>
+      <c r="N43" s="202"/>
+      <c r="O43" s="202"/>
+      <c r="P43" s="202"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="202"/>
+      <c r="S43" s="202"/>
+      <c r="T43" s="202"/>
+      <c r="U43" s="202"/>
+      <c r="V43" s="202"/>
+      <c r="W43" s="202"/>
+      <c r="X43" s="202"/>
+      <c r="Y43" s="202"/>
+      <c r="Z43" s="202"/>
+      <c r="AA43" s="202"/>
+      <c r="AB43" s="202"/>
+      <c r="AC43" s="202"/>
+      <c r="AD43" s="202"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="179"/>
@@ -5800,20 +5808,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="203"/>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
+      <c r="A1" s="207"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="97"/>
@@ -5976,7 +5984,7 @@
       </c>
       <c r="B17" s="98">
         <f>Zeitplanung!X39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5986,7 +5994,7 @@
       </c>
       <c r="B18" s="98">
         <f>Zeitplanung!Y39</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6116,7 +6124,7 @@
       </c>
       <c r="B31" s="98">
         <f>Zeitplanung!AL39</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6142,10 +6150,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="205"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6154,10 +6162,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="201" t="s">
+      <c r="A37" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="202"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="98">
         <f>Zeitplanung!C5</f>
         <v>22</v>
@@ -6168,10 +6176,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="207"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="98">
         <f>Zeitplanung!C11</f>
         <v>6</v>
@@ -6182,24 +6190,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="201" t="s">
+      <c r="A39" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="202"/>
+      <c r="B39" s="206"/>
       <c r="C39" s="98">
         <f>Zeitplanung!C16</f>
         <v>63.400000000000006</v>
       </c>
       <c r="D39" s="98">
         <f>Zeitplanung!D16</f>
-        <v>22.900000000000002</v>
+        <v>46.400000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="207"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="98">
         <f>Zeitplanung!C29</f>
         <v>6</v>
@@ -6210,10 +6218,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="201" t="s">
+      <c r="A41" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="202"/>
+      <c r="B41" s="206"/>
       <c r="C41" s="98">
         <f>Zeitplanung!C33</f>
         <v>5</v>
@@ -6224,10 +6232,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="201" t="s">
+      <c r="A42" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="202"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="98">
         <f>Zeitplanung!C36</f>
         <v>0</v>
